--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_3_40.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_3_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3673056.084324915</v>
+        <v>3672688.16761943</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>296337.1046705651</v>
+        <v>296337.1046705676</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736555</v>
+        <v>504792.0292736553</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>137.184604933403</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G2" t="n">
-        <v>411.9429466803539</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
         <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>327.9853100306736</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>160.0866360314548</v>
@@ -744,7 +744,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>133.3468600696244</v>
@@ -756,7 +756,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
         <v>216.3098444776729</v>
@@ -801,10 +801,10 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>56.15359407405411</v>
       </c>
       <c r="Y3" t="n">
-        <v>82.32832454913857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -826,19 +826,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,28 +859,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>15.78620544715629</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1.518793999885545</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -908,10 +908,10 @@
         <v>10.00967878293136</v>
       </c>
       <c r="G5" t="n">
-        <v>278.3493358134766</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H5" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>171.0890268032919</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,16 +950,16 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>285.0245875113954</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -975,10 +975,10 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C6" t="n">
-        <v>160.0866360314548</v>
+        <v>93.27239438609287</v>
       </c>
       <c r="D6" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>145.5577298436975</v>
@@ -993,7 +993,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
         <v>186.7982527956746</v>
@@ -1032,7 +1032,7 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V6" t="n">
-        <v>164.6066299176529</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>12.59665167322035</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X7" t="n">
-        <v>194.5299136996427</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>410.0096787829314</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G8" t="n">
-        <v>411.9429466803539</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H8" t="n">
         <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>185.3566856159496</v>
@@ -1187,19 +1187,19 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
-        <v>218.8580034825794</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>141.0598120912427</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1224,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>99.34643666690347</v>
+        <v>78.11832527047109</v>
       </c>
       <c r="H9" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,22 +1257,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
         <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V9" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W9" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>195.9378182409833</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1333,28 +1333,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>22.54853274729805</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V10" t="n">
-        <v>14.5038758621203</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>256.001881438235</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>11.96856448594155</v>
       </c>
       <c r="F11" t="n">
         <v>296.9158350961177</v>
       </c>
       <c r="G11" t="n">
-        <v>283.3781167629299</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>216.2294497816569</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>57.35610213003367</v>
+        <v>57.35610213003368</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>71.8850957913081</v>
       </c>
       <c r="T11" t="n">
         <v>108.9489477341494</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>139.2413130842301</v>
       </c>
       <c r="V11" t="n">
         <v>220.5156376762044</v>
@@ -1436,7 +1436,7 @@
         <v>265.1159953869079</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>276.5125931831067</v>
       </c>
     </row>
     <row r="12">
@@ -1461,13 +1461,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G12" t="n">
-        <v>127.4323455528369</v>
+        <v>127.4323455528363</v>
       </c>
       <c r="H12" t="n">
         <v>98.85281891431895</v>
       </c>
       <c r="I12" t="n">
-        <v>67.39308974070319</v>
+        <v>67.39308974070426</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>68.62597131072233</v>
+        <v>68.62597131072235</v>
       </c>
       <c r="C13" t="n">
-        <v>54.82596615612282</v>
+        <v>54.82596615612283</v>
       </c>
       <c r="D13" t="n">
-        <v>38.44733055370121</v>
+        <v>38.44733055370122</v>
       </c>
       <c r="E13" t="n">
-        <v>37.39508040948066</v>
+        <v>37.39508040948067</v>
       </c>
       <c r="F13" t="n">
-        <v>37.86200473766696</v>
+        <v>37.86200473766698</v>
       </c>
       <c r="G13" t="n">
-        <v>54.12927163178258</v>
+        <v>54.12927163178259</v>
       </c>
       <c r="H13" t="n">
-        <v>44.61896381776781</v>
+        <v>44.61896381776782</v>
       </c>
       <c r="I13" t="n">
-        <v>29.44355466213277</v>
+        <v>29.44355466213278</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>34.59837805321932</v>
+        <v>34.59837805321934</v>
       </c>
       <c r="S13" t="n">
-        <v>98.34923509440677</v>
+        <v>98.34923509440678</v>
       </c>
       <c r="T13" t="n">
-        <v>117.7215487038538</v>
+        <v>117.7215487038539</v>
       </c>
       <c r="U13" t="n">
         <v>171.2240878384011</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>277.0092604360252</v>
       </c>
       <c r="C14" t="n">
-        <v>176.9463137009486</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>256.001881438235</v>
+        <v>256.0018814382349</v>
       </c>
       <c r="E14" t="n">
         <v>277.7440190081405</v>
       </c>
       <c r="F14" t="n">
-        <v>296.9158350961177</v>
+        <v>296.9158350961176</v>
       </c>
       <c r="G14" t="n">
-        <v>298.8325260922642</v>
+        <v>298.8325260922641</v>
       </c>
       <c r="H14" t="n">
-        <v>216.2294497816569</v>
+        <v>216.2294497816568</v>
       </c>
       <c r="I14" t="n">
-        <v>57.35610213003369</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>71.8850957913081</v>
+        <v>71.88509579130806</v>
       </c>
       <c r="T14" t="n">
-        <v>108.9489477341494</v>
+        <v>108.9489477341493</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>139.2413130842301</v>
       </c>
       <c r="V14" t="n">
-        <v>220.5156376762044</v>
+        <v>220.5156376762043</v>
       </c>
       <c r="W14" t="n">
-        <v>245.8157371541613</v>
+        <v>245.8157371541612</v>
       </c>
       <c r="X14" t="n">
-        <v>265.1159953869079</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>83.16783769763512</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>98.85281891431895</v>
       </c>
       <c r="I15" t="n">
-        <v>67.39308974070319</v>
+        <v>67.39308974070426</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1737,7 +1737,7 @@
         <v>151.1067464546052</v>
       </c>
       <c r="T15" t="n">
-        <v>186.7625027923467</v>
+        <v>186.7625027923461</v>
       </c>
       <c r="U15" t="n">
         <v>216.3092609629287</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>68.62597131072235</v>
+        <v>68.62597131072231</v>
       </c>
       <c r="C16" t="n">
-        <v>54.82596615612283</v>
+        <v>54.82596615612279</v>
       </c>
       <c r="D16" t="n">
-        <v>38.44733055370122</v>
+        <v>38.44733055370118</v>
       </c>
       <c r="E16" t="n">
-        <v>37.39508040948067</v>
+        <v>37.39508040948063</v>
       </c>
       <c r="F16" t="n">
-        <v>37.86200473766698</v>
+        <v>37.86200473766694</v>
       </c>
       <c r="G16" t="n">
-        <v>54.12927163178259</v>
+        <v>54.12927163178255</v>
       </c>
       <c r="H16" t="n">
-        <v>44.61896381776782</v>
+        <v>44.61896381776778</v>
       </c>
       <c r="I16" t="n">
-        <v>29.44355466213278</v>
+        <v>29.44355466213274</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.59837805321934</v>
+        <v>34.59837805321929</v>
       </c>
       <c r="S16" t="n">
-        <v>98.34923509440678</v>
+        <v>98.34923509440674</v>
       </c>
       <c r="T16" t="n">
-        <v>117.7215487038539</v>
+        <v>117.7215487038538</v>
       </c>
       <c r="U16" t="n">
         <v>171.2240878384011</v>
@@ -1825,7 +1825,7 @@
         <v>145.0341077103479</v>
       </c>
       <c r="W16" t="n">
-        <v>170.2009937809612</v>
+        <v>170.2009937809611</v>
       </c>
       <c r="X16" t="n">
         <v>115.8460957767643</v>
@@ -1910,7 +1910,7 @@
         <v>213.0601666938332</v>
       </c>
       <c r="Y17" t="n">
-        <v>224.456764490032</v>
+        <v>224.4567644900335</v>
       </c>
     </row>
     <row r="18">
@@ -1935,13 +1935,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
-        <v>127.4323455528363</v>
+        <v>127.4323455528373</v>
       </c>
       <c r="H18" t="n">
         <v>98.85281891431895</v>
       </c>
       <c r="I18" t="n">
-        <v>67.39308974070381</v>
+        <v>67.39308974070319</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2081,13 +2081,13 @@
         <v>224.9534317429506</v>
       </c>
       <c r="C20" t="n">
-        <v>212.9647487006323</v>
+        <v>212.9647487006324</v>
       </c>
       <c r="D20" t="n">
         <v>203.9460527451603</v>
       </c>
       <c r="E20" t="n">
-        <v>225.6881903150658</v>
+        <v>225.6881903150659</v>
       </c>
       <c r="F20" t="n">
         <v>244.860006403043</v>
@@ -2099,7 +2099,7 @@
         <v>164.1736210885822</v>
       </c>
       <c r="I20" t="n">
-        <v>5.300273436959459</v>
+        <v>5.300273436959031</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>19.82926709823342</v>
+        <v>19.82926709823345</v>
       </c>
       <c r="T20" t="n">
-        <v>56.8931190410747</v>
+        <v>56.89311904107473</v>
       </c>
       <c r="U20" t="n">
-        <v>87.18548439115546</v>
+        <v>87.18548439115548</v>
       </c>
       <c r="V20" t="n">
         <v>168.4598089831297</v>
@@ -2144,7 +2144,7 @@
         <v>193.7599084610866</v>
       </c>
       <c r="X20" t="n">
-        <v>213.0601666938332</v>
+        <v>213.0601666938333</v>
       </c>
       <c r="Y20" t="n">
         <v>224.456764490032</v>
@@ -2178,7 +2178,7 @@
         <v>98.85281891431895</v>
       </c>
       <c r="I21" t="n">
-        <v>67.39308974070319</v>
+        <v>67.39308974070426</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>58.63574390140193</v>
+        <v>58.63574390140148</v>
       </c>
       <c r="S21" t="n">
         <v>151.1067464546052</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>16.57014261764766</v>
+        <v>16.57014261764769</v>
       </c>
       <c r="C22" t="n">
-        <v>2.770137463048144</v>
+        <v>2.770137463048172</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.073442938707903</v>
+        <v>2.073442938707931</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>46.29340640133209</v>
+        <v>46.29340640133212</v>
       </c>
       <c r="T22" t="n">
-        <v>65.66572001077917</v>
+        <v>65.6657200107792</v>
       </c>
       <c r="U22" t="n">
-        <v>119.1682591453264</v>
+        <v>119.1682591453265</v>
       </c>
       <c r="V22" t="n">
-        <v>92.97827901727325</v>
+        <v>92.97827901727328</v>
       </c>
       <c r="W22" t="n">
         <v>118.1451650878865</v>
       </c>
       <c r="X22" t="n">
-        <v>63.79026708368963</v>
+        <v>63.79026708368966</v>
       </c>
       <c r="Y22" t="n">
-        <v>54.66513483975731</v>
+        <v>54.66513483975734</v>
       </c>
     </row>
     <row r="23">
@@ -2318,13 +2318,13 @@
         <v>224.9534317429506</v>
       </c>
       <c r="C23" t="n">
-        <v>212.9647487006323</v>
+        <v>212.9647487006324</v>
       </c>
       <c r="D23" t="n">
         <v>203.9460527451603</v>
       </c>
       <c r="E23" t="n">
-        <v>225.6881903150658</v>
+        <v>225.6881903150659</v>
       </c>
       <c r="F23" t="n">
         <v>244.860006403043</v>
@@ -2336,7 +2336,7 @@
         <v>164.1736210885822</v>
       </c>
       <c r="I23" t="n">
-        <v>5.300273436958994</v>
+        <v>5.300273436959023</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>19.82926709823342</v>
+        <v>19.82926709823345</v>
       </c>
       <c r="T23" t="n">
-        <v>56.8931190410747</v>
+        <v>56.89311904107473</v>
       </c>
       <c r="U23" t="n">
-        <v>87.18548439115546</v>
+        <v>87.18548439115548</v>
       </c>
       <c r="V23" t="n">
         <v>168.4598089831297</v>
@@ -2381,7 +2381,7 @@
         <v>193.7599084610866</v>
       </c>
       <c r="X23" t="n">
-        <v>213.0601666938332</v>
+        <v>213.0601666938333</v>
       </c>
       <c r="Y23" t="n">
         <v>224.456764490032</v>
@@ -2415,7 +2415,7 @@
         <v>98.85281891431895</v>
       </c>
       <c r="I24" t="n">
-        <v>67.39308974070319</v>
+        <v>67.39308974070426</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>16.57014261764766</v>
+        <v>16.57014261764769</v>
       </c>
       <c r="C25" t="n">
-        <v>2.770137463048144</v>
+        <v>2.770137463048172</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.073442938707903</v>
+        <v>2.073442938707931</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>46.29340640133209</v>
+        <v>46.29340640133212</v>
       </c>
       <c r="T25" t="n">
-        <v>65.66572001077917</v>
+        <v>65.6657200107792</v>
       </c>
       <c r="U25" t="n">
-        <v>119.1682591453264</v>
+        <v>119.1682591453265</v>
       </c>
       <c r="V25" t="n">
-        <v>92.97827901727325</v>
+        <v>92.97827901727328</v>
       </c>
       <c r="W25" t="n">
         <v>118.1451650878865</v>
       </c>
       <c r="X25" t="n">
-        <v>63.79026708368963</v>
+        <v>63.79026708368966</v>
       </c>
       <c r="Y25" t="n">
-        <v>54.66513483975731</v>
+        <v>54.66513483975734</v>
       </c>
     </row>
     <row r="26">
@@ -2652,7 +2652,7 @@
         <v>98.85281891431895</v>
       </c>
       <c r="I27" t="n">
-        <v>67.39308974070319</v>
+        <v>67.39308974070423</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>58.63574390140238</v>
+        <v>58.63574390140148</v>
       </c>
       <c r="S27" t="n">
         <v>151.1067464546052</v>
@@ -2792,25 +2792,25 @@
         <v>264.1930005258181</v>
       </c>
       <c r="C29" t="n">
-        <v>252.2043174834998</v>
+        <v>252.2043174834999</v>
       </c>
       <c r="D29" t="n">
         <v>243.1856215280278</v>
       </c>
       <c r="E29" t="n">
-        <v>264.9277590979333</v>
+        <v>264.9277590979334</v>
       </c>
       <c r="F29" t="n">
-        <v>284.0995751859105</v>
+        <v>284.0995751859106</v>
       </c>
       <c r="G29" t="n">
-        <v>286.0162661820568</v>
+        <v>286.0162661820571</v>
       </c>
       <c r="H29" t="n">
-        <v>203.4131898714497</v>
+        <v>203.4131898714481</v>
       </c>
       <c r="I29" t="n">
-        <v>44.5398422198265</v>
+        <v>44.53984221982653</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>59.06883588110092</v>
+        <v>59.06883588110095</v>
       </c>
       <c r="T29" t="n">
-        <v>96.13268782394221</v>
+        <v>96.13268782394223</v>
       </c>
       <c r="U29" t="n">
         <v>126.425053174023</v>
@@ -2855,10 +2855,10 @@
         <v>232.9994772439541</v>
       </c>
       <c r="X29" t="n">
-        <v>252.2997354767007</v>
+        <v>252.2997354767008</v>
       </c>
       <c r="Y29" t="n">
-        <v>263.6963332728995</v>
+        <v>263.6963332728996</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.80971140051517</v>
+        <v>55.8097114005152</v>
       </c>
       <c r="C31" t="n">
-        <v>42.00970624591565</v>
+        <v>42.00970624591568</v>
       </c>
       <c r="D31" t="n">
-        <v>25.63107064349404</v>
+        <v>25.63107064349407</v>
       </c>
       <c r="E31" t="n">
-        <v>24.57882049927349</v>
+        <v>24.57882049927352</v>
       </c>
       <c r="F31" t="n">
-        <v>25.0457448274598</v>
+        <v>25.04574482745983</v>
       </c>
       <c r="G31" t="n">
-        <v>41.31301172157541</v>
+        <v>41.31301172157544</v>
       </c>
       <c r="H31" t="n">
-        <v>31.80270390756064</v>
+        <v>31.80270390756067</v>
       </c>
       <c r="I31" t="n">
-        <v>16.6272947519256</v>
+        <v>16.62729475192563</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.78211814301215</v>
+        <v>21.78211814301218</v>
       </c>
       <c r="S31" t="n">
-        <v>85.5329751841996</v>
+        <v>85.53297518419963</v>
       </c>
       <c r="T31" t="n">
         <v>104.9052887936467</v>
@@ -3013,10 +3013,10 @@
         <v>157.384733870754</v>
       </c>
       <c r="X31" t="n">
-        <v>103.0298358665571</v>
+        <v>103.0298358665572</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.90470362262482</v>
+        <v>93.90470362262485</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>247.7530514067035</v>
+        <v>247.7530514067033</v>
       </c>
       <c r="C32" t="n">
-        <v>235.7643683643852</v>
+        <v>235.764368364385</v>
       </c>
       <c r="D32" t="n">
-        <v>226.7456724089132</v>
+        <v>226.745672408913</v>
       </c>
       <c r="E32" t="n">
-        <v>248.4878099788187</v>
+        <v>248.4878099788185</v>
       </c>
       <c r="F32" t="n">
-        <v>267.6596260667959</v>
+        <v>267.6596260667957</v>
       </c>
       <c r="G32" t="n">
-        <v>269.5763170629424</v>
+        <v>269.5763170629422</v>
       </c>
       <c r="H32" t="n">
-        <v>186.9732407523351</v>
+        <v>186.9732407523349</v>
       </c>
       <c r="I32" t="n">
-        <v>28.09989310071191</v>
+        <v>28.09989310071168</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>42.62888676198632</v>
+        <v>42.6288867619861</v>
       </c>
       <c r="T32" t="n">
-        <v>79.6927387048276</v>
+        <v>79.69273870482738</v>
       </c>
       <c r="U32" t="n">
-        <v>109.9851040549084</v>
+        <v>109.9851040549081</v>
       </c>
       <c r="V32" t="n">
-        <v>191.2594286468826</v>
+        <v>191.2594286468824</v>
       </c>
       <c r="W32" t="n">
-        <v>216.5595281248395</v>
+        <v>216.5595281248393</v>
       </c>
       <c r="X32" t="n">
-        <v>235.8597863575861</v>
+        <v>235.8597863575859</v>
       </c>
       <c r="Y32" t="n">
-        <v>247.2563841537849</v>
+        <v>247.2563841537847</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>39.36976228140057</v>
+        <v>39.36976228140034</v>
       </c>
       <c r="C34" t="n">
-        <v>25.56975712680105</v>
+        <v>25.56975712680082</v>
       </c>
       <c r="D34" t="n">
-        <v>9.19112152437944</v>
+        <v>9.191121524379213</v>
       </c>
       <c r="E34" t="n">
-        <v>8.138871380158889</v>
+        <v>8.138871380158662</v>
       </c>
       <c r="F34" t="n">
-        <v>8.605795708345198</v>
+        <v>8.605795708344971</v>
       </c>
       <c r="G34" t="n">
-        <v>24.87306260246081</v>
+        <v>24.87306260246058</v>
       </c>
       <c r="H34" t="n">
-        <v>15.36275478844604</v>
+        <v>15.36275478844581</v>
       </c>
       <c r="I34" t="n">
-        <v>0.1873456328110006</v>
+        <v>0.1873456328107732</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>5.342169023897552</v>
+        <v>5.342169023897324</v>
       </c>
       <c r="S34" t="n">
-        <v>69.093026065085</v>
+        <v>69.09302606508477</v>
       </c>
       <c r="T34" t="n">
-        <v>88.46533967453207</v>
+        <v>88.46533967453185</v>
       </c>
       <c r="U34" t="n">
-        <v>141.9678788090794</v>
+        <v>141.9678788090791</v>
       </c>
       <c r="V34" t="n">
-        <v>115.7778986810262</v>
+        <v>115.7778986810259</v>
       </c>
       <c r="W34" t="n">
-        <v>140.9447847516394</v>
+        <v>140.9447847516392</v>
       </c>
       <c r="X34" t="n">
-        <v>86.58988674744253</v>
+        <v>86.58988674744231</v>
       </c>
       <c r="Y34" t="n">
-        <v>77.46475450351022</v>
+        <v>77.46475450350999</v>
       </c>
     </row>
     <row r="35">
@@ -3269,22 +3269,22 @@
         <v>212.9647487006324</v>
       </c>
       <c r="D35" t="n">
-        <v>203.9460527451604</v>
+        <v>203.9460527451603</v>
       </c>
       <c r="E35" t="n">
         <v>225.6881903150659</v>
       </c>
       <c r="F35" t="n">
-        <v>244.8600064030431</v>
+        <v>244.860006403043</v>
       </c>
       <c r="G35" t="n">
         <v>246.7766973991895</v>
       </c>
       <c r="H35" t="n">
-        <v>164.1736210885823</v>
+        <v>164.1736210885822</v>
       </c>
       <c r="I35" t="n">
-        <v>5.30027343695906</v>
+        <v>5.300273436959031</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,19 +3314,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>19.82926709823348</v>
+        <v>19.82926709823345</v>
       </c>
       <c r="T35" t="n">
-        <v>56.89311904107476</v>
+        <v>56.89311904107473</v>
       </c>
       <c r="U35" t="n">
-        <v>87.18548439115551</v>
+        <v>87.18548439115548</v>
       </c>
       <c r="V35" t="n">
-        <v>168.4598089831298</v>
+        <v>168.4598089831297</v>
       </c>
       <c r="W35" t="n">
-        <v>193.7599084610867</v>
+        <v>193.7599084610866</v>
       </c>
       <c r="X35" t="n">
         <v>213.0601666938333</v>
@@ -3351,13 +3351,13 @@
         <v>137.45025063969</v>
       </c>
       <c r="E36" t="n">
-        <v>145.5577298436975</v>
+        <v>145.5577298436986</v>
       </c>
       <c r="F36" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G36" t="n">
-        <v>127.4323455528373</v>
+        <v>127.4323455528363</v>
       </c>
       <c r="H36" t="n">
         <v>98.85281891431895</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.57014261764772</v>
+        <v>16.57014261764769</v>
       </c>
       <c r="C37" t="n">
-        <v>2.770137463048201</v>
+        <v>2.770137463048172</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.07344293870796</v>
+        <v>2.073442938707931</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>46.29340640133215</v>
+        <v>46.29340640133212</v>
       </c>
       <c r="T37" t="n">
-        <v>65.66572001077922</v>
+        <v>65.6657200107792</v>
       </c>
       <c r="U37" t="n">
         <v>119.1682591453265</v>
       </c>
       <c r="V37" t="n">
-        <v>92.97827901727331</v>
+        <v>92.97827901727328</v>
       </c>
       <c r="W37" t="n">
-        <v>118.1451650878866</v>
+        <v>118.1451650878865</v>
       </c>
       <c r="X37" t="n">
-        <v>63.79026708368968</v>
+        <v>63.79026708368966</v>
       </c>
       <c r="Y37" t="n">
-        <v>54.66513483975737</v>
+        <v>54.66513483975734</v>
       </c>
     </row>
     <row r="38">
@@ -3597,10 +3597,10 @@
         <v>127.4323455528363</v>
       </c>
       <c r="H39" t="n">
-        <v>98.85281891431956</v>
+        <v>98.85281891431895</v>
       </c>
       <c r="I39" t="n">
-        <v>67.39308974070319</v>
+        <v>67.39308974070426</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3749,16 +3749,16 @@
         <v>258.1871403947978</v>
       </c>
       <c r="F41" t="n">
-        <v>277.358956482775</v>
+        <v>106.9495762824089</v>
       </c>
       <c r="G41" t="n">
-        <v>279.2756474789215</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>196.6725711683142</v>
+        <v>196.6725711683141</v>
       </c>
       <c r="I41" t="n">
-        <v>37.799223516691</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>52.32821717796539</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>89.39206912080667</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>119.6844344708874</v>
       </c>
       <c r="V41" t="n">
         <v>200.9587590628617</v>
@@ -3803,10 +3803,10 @@
         <v>226.2588585408186</v>
       </c>
       <c r="X41" t="n">
-        <v>19.47958634724489</v>
+        <v>245.5591167735652</v>
       </c>
       <c r="Y41" t="n">
-        <v>256.955714569764</v>
+        <v>256.9557145697639</v>
       </c>
     </row>
     <row r="42">
@@ -3834,7 +3834,7 @@
         <v>127.4323455528363</v>
       </c>
       <c r="H42" t="n">
-        <v>98.85281891431895</v>
+        <v>98.85281891432001</v>
       </c>
       <c r="I42" t="n">
         <v>67.39308974070319</v>
@@ -3867,7 +3867,7 @@
         <v>58.63574390140148</v>
       </c>
       <c r="S42" t="n">
-        <v>151.1067464546056</v>
+        <v>151.1067464546052</v>
       </c>
       <c r="T42" t="n">
         <v>186.7625027923461</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>49.06909269737966</v>
+        <v>49.06909269737963</v>
       </c>
       <c r="C43" t="n">
-        <v>35.26908754278014</v>
+        <v>35.26908754278011</v>
       </c>
       <c r="D43" t="n">
-        <v>18.89045194035853</v>
+        <v>18.8904519403585</v>
       </c>
       <c r="E43" t="n">
-        <v>17.83820179613798</v>
+        <v>17.83820179613795</v>
       </c>
       <c r="F43" t="n">
-        <v>18.30512612432429</v>
+        <v>18.30512612432426</v>
       </c>
       <c r="G43" t="n">
-        <v>34.5723930184399</v>
+        <v>34.57239301843988</v>
       </c>
       <c r="H43" t="n">
-        <v>25.06208520442513</v>
+        <v>25.06208520442511</v>
       </c>
       <c r="I43" t="n">
-        <v>9.886676048790092</v>
+        <v>9.886676048790063</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>15.04149943987664</v>
+        <v>15.04149943987662</v>
       </c>
       <c r="S43" t="n">
-        <v>78.79235648106409</v>
+        <v>78.79235648106406</v>
       </c>
       <c r="T43" t="n">
-        <v>98.16467009051117</v>
+        <v>98.16467009051114</v>
       </c>
       <c r="U43" t="n">
-        <v>151.6672092250585</v>
+        <v>151.6672092250584</v>
       </c>
       <c r="V43" t="n">
         <v>125.4772290970052</v>
@@ -3961,10 +3961,10 @@
         <v>150.6441151676185</v>
       </c>
       <c r="X43" t="n">
-        <v>96.28921716342163</v>
+        <v>96.2892171634216</v>
       </c>
       <c r="Y43" t="n">
-        <v>87.16408491948931</v>
+        <v>87.16408491948928</v>
       </c>
     </row>
     <row r="44">
@@ -3974,22 +3974,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>257.4523818226826</v>
       </c>
       <c r="C44" t="n">
-        <v>245.4636987803642</v>
+        <v>245.4636987803643</v>
       </c>
       <c r="D44" t="n">
-        <v>236.4450028248922</v>
+        <v>236.4450028248923</v>
       </c>
       <c r="E44" t="n">
-        <v>258.1871403947978</v>
+        <v>87.77776019443155</v>
       </c>
       <c r="F44" t="n">
         <v>277.3589564827749</v>
       </c>
       <c r="G44" t="n">
-        <v>279.2756474789214</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>196.6725711683141</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>52.32821717796539</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>89.39206912080667</v>
       </c>
       <c r="U44" t="n">
-        <v>69.17207491305435</v>
+        <v>119.6844344708874</v>
       </c>
       <c r="V44" t="n">
-        <v>200.9587590628616</v>
+        <v>200.9587590628617</v>
       </c>
       <c r="W44" t="n">
-        <v>226.2588585408185</v>
+        <v>226.2588585408186</v>
       </c>
       <c r="X44" t="n">
-        <v>245.5591167735651</v>
+        <v>245.5591167735652</v>
       </c>
       <c r="Y44" t="n">
         <v>256.9557145697639</v>
@@ -4074,7 +4074,7 @@
         <v>98.85281891431895</v>
       </c>
       <c r="I45" t="n">
-        <v>67.39308974070319</v>
+        <v>67.39308974070426</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>58.63574390140238</v>
+        <v>58.63574390140148</v>
       </c>
       <c r="S45" t="n">
         <v>151.1067464546052</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>49.06909269737957</v>
+        <v>49.06909269737963</v>
       </c>
       <c r="C46" t="n">
-        <v>35.26908754278006</v>
+        <v>35.26908754278011</v>
       </c>
       <c r="D46" t="n">
-        <v>18.89045194035845</v>
+        <v>18.8904519403585</v>
       </c>
       <c r="E46" t="n">
-        <v>17.83820179613789</v>
+        <v>17.83820179613795</v>
       </c>
       <c r="F46" t="n">
-        <v>18.3051261243242</v>
+        <v>18.30512612432426</v>
       </c>
       <c r="G46" t="n">
-        <v>34.57239301843982</v>
+        <v>34.57239301843988</v>
       </c>
       <c r="H46" t="n">
-        <v>25.06208520442505</v>
+        <v>25.06208520442511</v>
       </c>
       <c r="I46" t="n">
-        <v>9.886676048790006</v>
+        <v>9.886676048790063</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>15.04149943987656</v>
+        <v>15.04149943987662</v>
       </c>
       <c r="S46" t="n">
-        <v>78.792356481064</v>
+        <v>78.79235648106406</v>
       </c>
       <c r="T46" t="n">
-        <v>98.16467009051108</v>
+        <v>98.16467009051114</v>
       </c>
       <c r="U46" t="n">
         <v>151.6672092250584</v>
@@ -4195,13 +4195,13 @@
         <v>125.4772290970052</v>
       </c>
       <c r="W46" t="n">
-        <v>150.6441151676184</v>
+        <v>150.6441151676185</v>
       </c>
       <c r="X46" t="n">
-        <v>96.28921716342154</v>
+        <v>96.2892171634216</v>
       </c>
       <c r="Y46" t="n">
-        <v>87.16408491948923</v>
+        <v>87.16408491948928</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1532.041961910905</v>
+        <v>59.1151530485143</v>
       </c>
       <c r="C2" t="n">
-        <v>1532.041961910905</v>
+        <v>59.1151530485143</v>
       </c>
       <c r="D2" t="n">
-        <v>1159.217997138128</v>
+        <v>59.1151530485143</v>
       </c>
       <c r="E2" t="n">
-        <v>764.4322772442351</v>
+        <v>59.1151530485143</v>
       </c>
       <c r="F2" t="n">
-        <v>625.8619692306968</v>
+        <v>49.00436639908868</v>
       </c>
       <c r="G2" t="n">
-        <v>209.7579826848848</v>
+        <v>36.94078389368072</v>
       </c>
       <c r="H2" t="n">
-        <v>209.7579826848848</v>
+        <v>36.94078389368072</v>
       </c>
       <c r="I2" t="n">
-        <v>36.94078389368081</v>
+        <v>36.94078389368072</v>
       </c>
       <c r="J2" t="n">
-        <v>108.9393281664865</v>
+        <v>108.9393281664864</v>
       </c>
       <c r="K2" t="n">
-        <v>349.0797002112693</v>
+        <v>349.0797002112691</v>
       </c>
       <c r="L2" t="n">
-        <v>447.8749351278126</v>
+        <v>696.9650732962155</v>
       </c>
       <c r="M2" t="n">
-        <v>841.1141013809006</v>
+        <v>841.114101380896</v>
       </c>
       <c r="N2" t="n">
-        <v>1219.445460068616</v>
+        <v>1219.445460068612</v>
       </c>
       <c r="O2" t="n">
-        <v>1524.45004454145</v>
+        <v>1524.450044541446</v>
       </c>
       <c r="P2" t="n">
-        <v>1752.606940997503</v>
+        <v>1752.606940997499</v>
       </c>
       <c r="Q2" t="n">
-        <v>1847.03919468404</v>
+        <v>1847.039194684036</v>
       </c>
       <c r="R2" t="n">
-        <v>1756.400908179894</v>
+        <v>1756.400908179889</v>
       </c>
       <c r="S2" t="n">
-        <v>1756.400908179894</v>
+        <v>1569.171932810243</v>
       </c>
       <c r="T2" t="n">
-        <v>1532.041961910905</v>
+        <v>1344.812986541254</v>
       </c>
       <c r="U2" t="n">
-        <v>1532.041961910905</v>
+        <v>1089.927650255248</v>
       </c>
       <c r="V2" t="n">
-        <v>1532.041961910905</v>
+        <v>752.9483761511897</v>
       </c>
       <c r="W2" t="n">
-        <v>1532.041961910905</v>
+        <v>390.4134460087907</v>
       </c>
       <c r="X2" t="n">
-        <v>1532.041961910905</v>
+        <v>59.1151530485143</v>
       </c>
       <c r="Y2" t="n">
-        <v>1532.041961910905</v>
+        <v>59.1151530485143</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>916.2535443957248</v>
+        <v>700.843249142657</v>
       </c>
       <c r="C3" t="n">
-        <v>754.5498716366795</v>
+        <v>539.1395763836117</v>
       </c>
       <c r="D3" t="n">
-        <v>615.7112346268916</v>
+        <v>400.3009393738238</v>
       </c>
       <c r="E3" t="n">
-        <v>468.6832246837629</v>
+        <v>400.3009393738238</v>
       </c>
       <c r="F3" t="n">
-        <v>333.9894266336372</v>
+        <v>265.6071413236981</v>
       </c>
       <c r="G3" t="n">
-        <v>205.2609266569218</v>
+        <v>136.8786413469827</v>
       </c>
       <c r="H3" t="n">
-        <v>105.3230692036198</v>
+        <v>36.94078389368072</v>
       </c>
       <c r="I3" t="n">
-        <v>36.94078389368081</v>
+        <v>36.94078389368072</v>
       </c>
       <c r="J3" t="n">
-        <v>36.94078389368081</v>
+        <v>97.19493042678687</v>
       </c>
       <c r="K3" t="n">
-        <v>266.4313364538694</v>
+        <v>326.6854829869756</v>
       </c>
       <c r="L3" t="n">
-        <v>632.253181623985</v>
+        <v>630.658874039741</v>
       </c>
       <c r="M3" t="n">
-        <v>1089.395382308285</v>
+        <v>1087.80107472404</v>
       </c>
       <c r="N3" t="n">
-        <v>1152.743324624192</v>
+        <v>1544.943275408339</v>
       </c>
       <c r="O3" t="n">
-        <v>1544.943275408343</v>
+        <v>1544.943275408339</v>
       </c>
       <c r="P3" t="n">
-        <v>1847.03919468404</v>
+        <v>1847.039194684036</v>
       </c>
       <c r="Q3" t="n">
-        <v>1847.03919468404</v>
+        <v>1847.039194684036</v>
       </c>
       <c r="R3" t="n">
-        <v>1847.03919468404</v>
+        <v>1787.254925778982</v>
       </c>
       <c r="S3" t="n">
-        <v>1847.03919468404</v>
+        <v>1634.455438791722</v>
       </c>
       <c r="T3" t="n">
-        <v>1847.03919468404</v>
+        <v>1445.770334957707</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.54440228235</v>
+        <v>1227.275542556017</v>
       </c>
       <c r="V3" t="n">
-        <v>1400.148779730684</v>
+        <v>998.8799200043511</v>
       </c>
       <c r="W3" t="n">
-        <v>1158.832910963994</v>
+        <v>757.5640512376611</v>
       </c>
       <c r="X3" t="n">
-        <v>1158.832910963994</v>
+        <v>700.843249142657</v>
       </c>
       <c r="Y3" t="n">
-        <v>1075.672987176986</v>
+        <v>700.843249142657</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>553.0543670717786</v>
+        <v>36.94078389368072</v>
       </c>
       <c r="C4" t="n">
-        <v>553.0543670717786</v>
+        <v>36.94078389368072</v>
       </c>
       <c r="D4" t="n">
-        <v>553.0543670717786</v>
+        <v>36.94078389368072</v>
       </c>
       <c r="E4" t="n">
-        <v>553.0543670717786</v>
+        <v>36.94078389368072</v>
       </c>
       <c r="F4" t="n">
-        <v>400.5737120975558</v>
+        <v>36.94078389368072</v>
       </c>
       <c r="G4" t="n">
-        <v>400.5737120975558</v>
+        <v>36.94078389368072</v>
       </c>
       <c r="H4" t="n">
-        <v>241.2010668768296</v>
+        <v>36.94078389368072</v>
       </c>
       <c r="I4" t="n">
-        <v>96.99802247950808</v>
+        <v>36.94078389368072</v>
       </c>
       <c r="J4" t="n">
-        <v>36.94078389368081</v>
+        <v>36.94078389368072</v>
       </c>
       <c r="K4" t="n">
-        <v>70.54497163832423</v>
+        <v>70.54497163832413</v>
       </c>
       <c r="L4" t="n">
-        <v>171.1520510385837</v>
+        <v>171.1520510385836</v>
       </c>
       <c r="M4" t="n">
-        <v>289.1455571661855</v>
+        <v>289.1455571661854</v>
       </c>
       <c r="N4" t="n">
-        <v>407.5678989157859</v>
+        <v>407.5678989157857</v>
       </c>
       <c r="O4" t="n">
-        <v>506.0315454114755</v>
+        <v>506.0315454114754</v>
       </c>
       <c r="P4" t="n">
-        <v>569.0000291396133</v>
+        <v>569.0000291396132</v>
       </c>
       <c r="Q4" t="n">
-        <v>569.0000291396133</v>
+        <v>530.4626877933022</v>
       </c>
       <c r="R4" t="n">
-        <v>569.0000291396133</v>
+        <v>530.4626877933022</v>
       </c>
       <c r="S4" t="n">
-        <v>553.0543670717786</v>
+        <v>530.4626877933022</v>
       </c>
       <c r="T4" t="n">
-        <v>553.0543670717786</v>
+        <v>528.9285524398824</v>
       </c>
       <c r="U4" t="n">
-        <v>553.0543670717786</v>
+        <v>528.9285524398824</v>
       </c>
       <c r="V4" t="n">
-        <v>553.0543670717786</v>
+        <v>268.193247998305</v>
       </c>
       <c r="W4" t="n">
-        <v>553.0543670717786</v>
+        <v>268.193247998305</v>
       </c>
       <c r="X4" t="n">
-        <v>553.0543670717786</v>
+        <v>36.94078389368072</v>
       </c>
       <c r="Y4" t="n">
-        <v>553.0543670717786</v>
+        <v>36.94078389368072</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1228.636708897032</v>
+        <v>626.7180717336114</v>
       </c>
       <c r="C5" t="n">
-        <v>1228.636708897032</v>
+        <v>626.7180717336114</v>
       </c>
       <c r="D5" t="n">
-        <v>1228.636708897032</v>
+        <v>626.7180717336114</v>
       </c>
       <c r="E5" t="n">
-        <v>833.8509890031391</v>
+        <v>231.9323518397183</v>
       </c>
       <c r="F5" t="n">
-        <v>823.7402023537136</v>
+        <v>221.8215651902927</v>
       </c>
       <c r="G5" t="n">
-        <v>542.5792570875756</v>
+        <v>209.7579826848847</v>
       </c>
       <c r="H5" t="n">
-        <v>209.7579826848848</v>
+        <v>209.7579826848847</v>
       </c>
       <c r="I5" t="n">
-        <v>36.94078389368081</v>
+        <v>36.94078389368072</v>
       </c>
       <c r="J5" t="n">
-        <v>36.94078389368081</v>
+        <v>108.9393281664864</v>
       </c>
       <c r="K5" t="n">
-        <v>99.9895620428664</v>
+        <v>349.0797002112691</v>
       </c>
       <c r="L5" t="n">
-        <v>447.8749351278126</v>
+        <v>696.9650732962155</v>
       </c>
       <c r="M5" t="n">
-        <v>841.1141013809006</v>
+        <v>841.114101380896</v>
       </c>
       <c r="N5" t="n">
-        <v>1219.445460068616</v>
+        <v>1219.445460068612</v>
       </c>
       <c r="O5" t="n">
-        <v>1524.45004454145</v>
+        <v>1524.450044541446</v>
       </c>
       <c r="P5" t="n">
-        <v>1752.606940997503</v>
+        <v>1752.606940997499</v>
       </c>
       <c r="Q5" t="n">
-        <v>1847.03919468404</v>
+        <v>1847.039194684036</v>
       </c>
       <c r="R5" t="n">
-        <v>1847.03919468404</v>
+        <v>1756.400908179889</v>
       </c>
       <c r="S5" t="n">
-        <v>1847.03919468404</v>
+        <v>1756.400908179889</v>
       </c>
       <c r="T5" t="n">
-        <v>1622.680248415051</v>
+        <v>1532.0419619109</v>
       </c>
       <c r="U5" t="n">
-        <v>1622.680248415051</v>
+        <v>1277.156625624895</v>
       </c>
       <c r="V5" t="n">
-        <v>1622.680248415051</v>
+        <v>1277.156625624895</v>
       </c>
       <c r="W5" t="n">
-        <v>1622.680248415051</v>
+        <v>914.6216954824956</v>
       </c>
       <c r="X5" t="n">
-        <v>1622.680248415051</v>
+        <v>626.7180717336114</v>
       </c>
       <c r="Y5" t="n">
-        <v>1622.680248415051</v>
+        <v>626.7180717336114</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>916.2535443957248</v>
+        <v>641.5434891008847</v>
       </c>
       <c r="C6" t="n">
-        <v>754.5498716366795</v>
+        <v>547.3289493169525</v>
       </c>
       <c r="D6" t="n">
-        <v>615.7112346268916</v>
+        <v>547.3289493169525</v>
       </c>
       <c r="E6" t="n">
-        <v>468.6832246837629</v>
+        <v>400.3009393738238</v>
       </c>
       <c r="F6" t="n">
-        <v>333.9894266336372</v>
+        <v>265.6071413236981</v>
       </c>
       <c r="G6" t="n">
-        <v>205.2609266569218</v>
+        <v>136.8786413469827</v>
       </c>
       <c r="H6" t="n">
-        <v>105.3230692036198</v>
+        <v>36.94078389368072</v>
       </c>
       <c r="I6" t="n">
-        <v>36.94078389368081</v>
+        <v>36.94078389368072</v>
       </c>
       <c r="J6" t="n">
-        <v>97.19493042678695</v>
+        <v>97.19493042678687</v>
       </c>
       <c r="K6" t="n">
-        <v>97.19493042678695</v>
+        <v>326.6854829869756</v>
       </c>
       <c r="L6" t="n">
-        <v>463.0167755969026</v>
+        <v>537.8294941542947</v>
       </c>
       <c r="M6" t="n">
-        <v>695.6011239398922</v>
+        <v>994.9716948385935</v>
       </c>
       <c r="N6" t="n">
-        <v>1152.743324624192</v>
+        <v>994.9716948385935</v>
       </c>
       <c r="O6" t="n">
-        <v>1544.943275408343</v>
+        <v>1387.171645622744</v>
       </c>
       <c r="P6" t="n">
-        <v>1847.03919468404</v>
+        <v>1689.267564898442</v>
       </c>
       <c r="Q6" t="n">
-        <v>1847.03919468404</v>
+        <v>1847.039194684036</v>
       </c>
       <c r="R6" t="n">
-        <v>1847.03919468404</v>
+        <v>1787.254925778982</v>
       </c>
       <c r="S6" t="n">
-        <v>1847.03919468404</v>
+        <v>1634.455438791722</v>
       </c>
       <c r="T6" t="n">
-        <v>1658.354090850025</v>
+        <v>1445.770334957707</v>
       </c>
       <c r="U6" t="n">
-        <v>1439.859298448335</v>
+        <v>1227.275542556017</v>
       </c>
       <c r="V6" t="n">
-        <v>1273.589975299191</v>
+        <v>998.8799200043511</v>
       </c>
       <c r="W6" t="n">
-        <v>1273.589975299191</v>
+        <v>998.8799200043511</v>
       </c>
       <c r="X6" t="n">
-        <v>1075.672987176986</v>
+        <v>800.9629318821457</v>
       </c>
       <c r="Y6" t="n">
-        <v>1075.672987176986</v>
+        <v>800.9629318821457</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.949798132362</v>
+        <v>36.94078389368072</v>
       </c>
       <c r="C7" t="n">
-        <v>188.949798132362</v>
+        <v>36.94078389368072</v>
       </c>
       <c r="D7" t="n">
-        <v>188.949798132362</v>
+        <v>36.94078389368072</v>
       </c>
       <c r="E7" t="n">
-        <v>36.94078389368081</v>
+        <v>36.94078389368072</v>
       </c>
       <c r="F7" t="n">
-        <v>36.94078389368081</v>
+        <v>36.94078389368072</v>
       </c>
       <c r="G7" t="n">
-        <v>36.94078389368081</v>
+        <v>36.94078389368072</v>
       </c>
       <c r="H7" t="n">
-        <v>36.94078389368081</v>
+        <v>36.94078389368072</v>
       </c>
       <c r="I7" t="n">
-        <v>36.94078389368081</v>
+        <v>36.94078389368072</v>
       </c>
       <c r="J7" t="n">
-        <v>36.94078389368081</v>
+        <v>36.94078389368072</v>
       </c>
       <c r="K7" t="n">
-        <v>70.54497163832423</v>
+        <v>70.54497163832413</v>
       </c>
       <c r="L7" t="n">
-        <v>171.1520510385837</v>
+        <v>171.1520510385836</v>
       </c>
       <c r="M7" t="n">
-        <v>289.1455571661855</v>
+        <v>289.1455571661854</v>
       </c>
       <c r="N7" t="n">
-        <v>407.5678989157859</v>
+        <v>407.5678989157857</v>
       </c>
       <c r="O7" t="n">
-        <v>506.0315454114755</v>
+        <v>506.0315454114754</v>
       </c>
       <c r="P7" t="n">
-        <v>569.0000291396133</v>
+        <v>569.0000291396132</v>
       </c>
       <c r="Q7" t="n">
-        <v>569.0000291396133</v>
+        <v>569.0000291396132</v>
       </c>
       <c r="R7" t="n">
-        <v>569.0000291396133</v>
+        <v>556.2761385606027</v>
       </c>
       <c r="S7" t="n">
-        <v>569.0000291396133</v>
+        <v>556.2761385606027</v>
       </c>
       <c r="T7" t="n">
-        <v>569.0000291396133</v>
+        <v>323.0971853762816</v>
       </c>
       <c r="U7" t="n">
-        <v>569.0000291396133</v>
+        <v>323.0971853762816</v>
       </c>
       <c r="V7" t="n">
-        <v>569.0000291396133</v>
+        <v>323.0971853762816</v>
       </c>
       <c r="W7" t="n">
-        <v>569.0000291396133</v>
+        <v>36.94078389368072</v>
       </c>
       <c r="X7" t="n">
-        <v>372.5051668167418</v>
+        <v>36.94078389368072</v>
       </c>
       <c r="Y7" t="n">
-        <v>372.5051668167418</v>
+        <v>36.94078389368072</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1377.917906530736</v>
+        <v>397.0198996587235</v>
       </c>
       <c r="C8" t="n">
-        <v>1377.917906530736</v>
+        <v>397.0198996587235</v>
       </c>
       <c r="D8" t="n">
-        <v>1377.917906530736</v>
+        <v>397.0198996587235</v>
       </c>
       <c r="E8" t="n">
-        <v>1377.917906530736</v>
+        <v>397.0198996587235</v>
       </c>
       <c r="F8" t="n">
-        <v>963.766715840906</v>
+        <v>386.9091130092979</v>
       </c>
       <c r="G8" t="n">
-        <v>547.662729295094</v>
+        <v>374.84553050389</v>
       </c>
       <c r="H8" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I8" t="n">
         <v>42.02425610119923</v>
@@ -4826,28 +4826,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R8" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S8" t="n">
-        <v>1823.345543186168</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="T8" t="n">
-        <v>1598.98659691718</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="U8" t="n">
-        <v>1377.917906530736</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="V8" t="n">
-        <v>1377.917906530736</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="W8" t="n">
-        <v>1377.917906530736</v>
+        <v>1327.089953278928</v>
       </c>
       <c r="X8" t="n">
-        <v>1377.917906530736</v>
+        <v>1184.605294600905</v>
       </c>
       <c r="Y8" t="n">
-        <v>1377.917906530736</v>
+        <v>791.0634391767427</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>892.958452653703</v>
+        <v>703.195773126389</v>
       </c>
       <c r="C9" t="n">
-        <v>731.2547798946578</v>
+        <v>541.4921003673437</v>
       </c>
       <c r="D9" t="n">
-        <v>592.4161428848698</v>
+        <v>402.6534633575558</v>
       </c>
       <c r="E9" t="n">
-        <v>445.388132941741</v>
+        <v>255.625453414427</v>
       </c>
       <c r="F9" t="n">
-        <v>310.6943348916154</v>
+        <v>120.9316553643013</v>
       </c>
       <c r="G9" t="n">
-        <v>210.3443988644402</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H9" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I9" t="n">
         <v>42.02425610119923</v>
@@ -4905,28 +4905,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R9" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S9" t="n">
-        <v>2101.212805059961</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="T9" t="n">
-        <v>1912.527701225946</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="U9" t="n">
-        <v>1912.527701225946</v>
+        <v>1481.449152931943</v>
       </c>
       <c r="V9" t="n">
-        <v>1684.13207867428</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="W9" t="n">
-        <v>1442.81620990759</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="X9" t="n">
-        <v>1244.899221785385</v>
+        <v>1055.136542258071</v>
       </c>
       <c r="Y9" t="n">
-        <v>1052.377895434964</v>
+        <v>862.6152159076499</v>
       </c>
     </row>
     <row r="10">
@@ -4981,31 +4981,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q10" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="R10" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="S10" t="n">
-        <v>574.0835013471317</v>
+        <v>512.7698642964792</v>
       </c>
       <c r="T10" t="n">
-        <v>574.0835013471317</v>
+        <v>512.7698642964792</v>
       </c>
       <c r="U10" t="n">
-        <v>574.0835013471317</v>
+        <v>225.5796247855791</v>
       </c>
       <c r="V10" t="n">
-        <v>559.4331216884243</v>
+        <v>225.5796247855791</v>
       </c>
       <c r="W10" t="n">
-        <v>273.2767202058235</v>
+        <v>225.5796247855791</v>
       </c>
       <c r="X10" t="n">
-        <v>42.02425610119923</v>
+        <v>225.5796247855791</v>
       </c>
       <c r="Y10" t="n">
-        <v>42.02425610119923</v>
+        <v>225.5796247855791</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1440.167052329859</v>
+        <v>947.602403785773</v>
       </c>
       <c r="C11" t="n">
-        <v>1172.469499406923</v>
+        <v>679.9048508628367</v>
       </c>
       <c r="D11" t="n">
-        <v>913.8817403784024</v>
+        <v>421.3170918343167</v>
       </c>
       <c r="E11" t="n">
-        <v>913.8817403784024</v>
+        <v>409.2276327576077</v>
       </c>
       <c r="F11" t="n">
-        <v>613.9667554328289</v>
+        <v>109.3126478120342</v>
       </c>
       <c r="G11" t="n">
-        <v>327.7262334500714</v>
+        <v>109.3126478120342</v>
       </c>
       <c r="H11" t="n">
         <v>109.3126478120342</v>
@@ -5039,25 +5039,25 @@
         <v>51.37719111503048</v>
       </c>
       <c r="J11" t="n">
-        <v>236.7315149747124</v>
+        <v>124.7686097247668</v>
       </c>
       <c r="K11" t="n">
-        <v>590.922349835076</v>
+        <v>366.9965393351849</v>
       </c>
       <c r="L11" t="n">
-        <v>1053.360427924606</v>
+        <v>829.4346174247144</v>
       </c>
       <c r="M11" t="n">
-        <v>1528.949726502854</v>
+        <v>1337.518340155773</v>
       </c>
       <c r="N11" t="n">
-        <v>1910.209364548138</v>
+        <v>1798.246459298193</v>
       </c>
       <c r="O11" t="n">
-        <v>2217.979040182097</v>
+        <v>2106.016134932152</v>
       </c>
       <c r="P11" t="n">
-        <v>2448.495877971525</v>
+        <v>2336.53297272158</v>
       </c>
       <c r="Q11" t="n">
         <v>2544.700349317259</v>
@@ -5066,25 +5066,25 @@
         <v>2568.859555751524</v>
       </c>
       <c r="S11" t="n">
-        <v>2568.859555751524</v>
+        <v>2496.248347881516</v>
       </c>
       <c r="T11" t="n">
-        <v>2458.810113595817</v>
+        <v>2386.198905725809</v>
       </c>
       <c r="U11" t="n">
-        <v>2458.810113595817</v>
+        <v>2245.551114731637</v>
       </c>
       <c r="V11" t="n">
-        <v>2236.067045236015</v>
+        <v>2022.808046371835</v>
       </c>
       <c r="W11" t="n">
-        <v>1987.768320837872</v>
+        <v>1774.509321973692</v>
       </c>
       <c r="X11" t="n">
-        <v>1719.974386103622</v>
+        <v>1506.715387239442</v>
       </c>
       <c r="Y11" t="n">
-        <v>1719.974386103622</v>
+        <v>1227.409737559536</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>930.2860100971777</v>
+        <v>930.2860100971782</v>
       </c>
       <c r="C12" t="n">
-        <v>768.5823373381324</v>
+        <v>768.5823373381329</v>
       </c>
       <c r="D12" t="n">
-        <v>629.7437003283445</v>
+        <v>629.743700328345</v>
       </c>
       <c r="E12" t="n">
-        <v>482.7156903852157</v>
+        <v>482.7156903852162</v>
       </c>
       <c r="F12" t="n">
-        <v>348.0218923350901</v>
+        <v>348.0218923350906</v>
       </c>
       <c r="G12" t="n">
-        <v>219.3023513726286</v>
+        <v>219.3023513726297</v>
       </c>
       <c r="H12" t="n">
-        <v>119.4510191359428</v>
+        <v>119.4510191359439</v>
       </c>
       <c r="I12" t="n">
         <v>51.37719111503048</v>
@@ -5121,10 +5121,10 @@
         <v>112.460924061068</v>
       </c>
       <c r="K12" t="n">
-        <v>343.369371935536</v>
+        <v>343.3693719355363</v>
       </c>
       <c r="L12" t="n">
-        <v>711.0977523348504</v>
+        <v>711.0977523348506</v>
       </c>
       <c r="M12" t="n">
         <v>1198.355942532095</v>
@@ -5148,13 +5148,13 @@
         <v>2356.99845438182</v>
       </c>
       <c r="T12" t="n">
-        <v>2168.349461662278</v>
+        <v>2168.349461662279</v>
       </c>
       <c r="U12" t="n">
-        <v>1949.855258669421</v>
+        <v>1949.855258669422</v>
       </c>
       <c r="V12" t="n">
-        <v>1721.459636117755</v>
+        <v>1721.459636117756</v>
       </c>
       <c r="W12" t="n">
         <v>1480.143767351065</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>351.0965567399344</v>
+        <v>351.0965567399343</v>
       </c>
       <c r="C13" t="n">
         <v>295.7167929458709</v>
       </c>
       <c r="D13" t="n">
-        <v>256.8811055178899</v>
+        <v>256.88110551789</v>
       </c>
       <c r="E13" t="n">
-        <v>219.108297023465</v>
+        <v>219.1082970234651</v>
       </c>
       <c r="F13" t="n">
-        <v>180.8638477934983</v>
+        <v>180.8638477934985</v>
       </c>
       <c r="G13" t="n">
-        <v>126.1878158422028</v>
+        <v>126.1878158422029</v>
       </c>
       <c r="H13" t="n">
-        <v>81.1181554202151</v>
+        <v>81.11815542021512</v>
       </c>
       <c r="I13" t="n">
         <v>51.37719111503048</v>
@@ -5221,10 +5221,10 @@
         <v>1389.805023206105</v>
       </c>
       <c r="R13" t="n">
-        <v>1354.857166586692</v>
+        <v>1354.857166586691</v>
       </c>
       <c r="S13" t="n">
-        <v>1255.51450487517</v>
+        <v>1255.514504875169</v>
       </c>
       <c r="T13" t="n">
         <v>1136.603849618751</v>
@@ -5239,10 +5239,10 @@
         <v>645.2309311038925</v>
       </c>
       <c r="X13" t="n">
-        <v>528.2146727435246</v>
+        <v>528.2146727435245</v>
       </c>
       <c r="Y13" t="n">
-        <v>420.415719680058</v>
+        <v>420.4157196800579</v>
       </c>
     </row>
     <row r="14">
@@ -5252,49 +5252,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1647.363178233613</v>
+        <v>1410.694071333631</v>
       </c>
       <c r="C14" t="n">
-        <v>1468.629528030634</v>
+        <v>1410.694071333631</v>
       </c>
       <c r="D14" t="n">
-        <v>1210.041769002114</v>
+        <v>1152.106312305111</v>
       </c>
       <c r="E14" t="n">
-        <v>929.4922548524771</v>
+        <v>871.5567981554736</v>
       </c>
       <c r="F14" t="n">
-        <v>629.5772699069036</v>
+        <v>571.6418132099002</v>
       </c>
       <c r="G14" t="n">
-        <v>327.726233450071</v>
+        <v>269.7907767530677</v>
       </c>
       <c r="H14" t="n">
-        <v>109.3126478120342</v>
+        <v>51.37719111503048</v>
       </c>
       <c r="I14" t="n">
         <v>51.37719111503048</v>
       </c>
       <c r="J14" t="n">
-        <v>204.2370908219033</v>
+        <v>236.7315149747124</v>
       </c>
       <c r="K14" t="n">
-        <v>446.4650204323214</v>
+        <v>590.9223498350761</v>
       </c>
       <c r="L14" t="n">
-        <v>796.9401932719053</v>
+        <v>941.3975226746601</v>
       </c>
       <c r="M14" t="n">
-        <v>1193.061010753018</v>
+        <v>1337.518340155773</v>
       </c>
       <c r="N14" t="n">
-        <v>1686.283554048247</v>
+        <v>1830.740883451002</v>
       </c>
       <c r="O14" t="n">
-        <v>2106.016134932152</v>
+        <v>2138.510559084961</v>
       </c>
       <c r="P14" t="n">
-        <v>2448.495877971525</v>
+        <v>2369.027396874389</v>
       </c>
       <c r="Q14" t="n">
         <v>2544.700349317259</v>
@@ -5303,25 +5303,25 @@
         <v>2568.859555751524</v>
       </c>
       <c r="S14" t="n">
-        <v>2496.248347881515</v>
+        <v>2496.248347881516</v>
       </c>
       <c r="T14" t="n">
-        <v>2386.198905725809</v>
+        <v>2386.19890572581</v>
       </c>
       <c r="U14" t="n">
-        <v>2386.198905725809</v>
+        <v>2245.551114731637</v>
       </c>
       <c r="V14" t="n">
-        <v>2163.455837366007</v>
+        <v>2022.808046371835</v>
       </c>
       <c r="W14" t="n">
-        <v>1915.157112967864</v>
+        <v>1774.509321973692</v>
       </c>
       <c r="X14" t="n">
-        <v>1647.363178233613</v>
+        <v>1774.509321973692</v>
       </c>
       <c r="Y14" t="n">
-        <v>1647.363178233613</v>
+        <v>1690.501405107394</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>930.2860100971772</v>
+        <v>930.2860100971782</v>
       </c>
       <c r="C15" t="n">
-        <v>768.5823373381319</v>
+        <v>768.5823373381329</v>
       </c>
       <c r="D15" t="n">
-        <v>629.7437003283439</v>
+        <v>629.743700328345</v>
       </c>
       <c r="E15" t="n">
-        <v>482.7156903852151</v>
+        <v>482.7156903852162</v>
       </c>
       <c r="F15" t="n">
-        <v>348.0218923350895</v>
+        <v>348.0218923350906</v>
       </c>
       <c r="G15" t="n">
-        <v>219.3023513726286</v>
+        <v>219.3023513726297</v>
       </c>
       <c r="H15" t="n">
-        <v>119.4510191359428</v>
+        <v>119.4510191359439</v>
       </c>
       <c r="I15" t="n">
         <v>51.37719111503048</v>
       </c>
       <c r="J15" t="n">
-        <v>112.460924061068</v>
+        <v>112.4609240610683</v>
       </c>
       <c r="K15" t="n">
-        <v>343.3693719355363</v>
+        <v>343.3693719355365</v>
       </c>
       <c r="L15" t="n">
-        <v>711.0977523348506</v>
+        <v>711.0977523348508</v>
       </c>
       <c r="M15" t="n">
         <v>1198.355942532095</v>
@@ -5385,22 +5385,22 @@
         <v>2356.99845438182</v>
       </c>
       <c r="T15" t="n">
-        <v>2168.349461662278</v>
+        <v>2168.349461662279</v>
       </c>
       <c r="U15" t="n">
-        <v>1949.855258669421</v>
+        <v>1949.855258669422</v>
       </c>
       <c r="V15" t="n">
-        <v>1721.459636117755</v>
+        <v>1721.459636117756</v>
       </c>
       <c r="W15" t="n">
         <v>1480.143767351065</v>
       </c>
       <c r="X15" t="n">
-        <v>1282.226779228859</v>
+        <v>1282.22677922886</v>
       </c>
       <c r="Y15" t="n">
-        <v>1089.705452878438</v>
+        <v>1089.705452878439</v>
       </c>
     </row>
     <row r="16">
@@ -5416,64 +5416,64 @@
         <v>295.7167929458707</v>
       </c>
       <c r="D16" t="n">
-        <v>256.8811055178896</v>
+        <v>256.8811055178898</v>
       </c>
       <c r="E16" t="n">
-        <v>219.1082970234647</v>
+        <v>219.1082970234648</v>
       </c>
       <c r="F16" t="n">
-        <v>180.8638477934981</v>
+        <v>180.8638477934982</v>
       </c>
       <c r="G16" t="n">
-        <v>126.1878158422028</v>
+        <v>126.1878158422027</v>
       </c>
       <c r="H16" t="n">
-        <v>81.11815542021512</v>
+        <v>81.11815542021506</v>
       </c>
       <c r="I16" t="n">
         <v>51.37719111503048</v>
       </c>
       <c r="J16" t="n">
-        <v>104.9984526824718</v>
+        <v>104.9984526824716</v>
       </c>
       <c r="K16" t="n">
         <v>251.420814525311</v>
       </c>
       <c r="L16" t="n">
-        <v>465.0852488425182</v>
+        <v>465.085248842518</v>
       </c>
       <c r="M16" t="n">
-        <v>696.1956039407527</v>
+        <v>696.1956039407523</v>
       </c>
       <c r="N16" t="n">
-        <v>927.7073564584989</v>
+        <v>927.7073564584985</v>
       </c>
       <c r="O16" t="n">
-        <v>1139.174418380394</v>
+        <v>1139.174418380393</v>
       </c>
       <c r="P16" t="n">
-        <v>1314.996143567955</v>
+        <v>1314.996143567954</v>
       </c>
       <c r="Q16" t="n">
         <v>1389.805023206105</v>
       </c>
       <c r="R16" t="n">
-        <v>1354.857166586692</v>
+        <v>1354.857166586691</v>
       </c>
       <c r="S16" t="n">
-        <v>1255.51450487517</v>
+        <v>1255.514504875169</v>
       </c>
       <c r="T16" t="n">
         <v>1136.603849618751</v>
       </c>
       <c r="U16" t="n">
-        <v>963.6502255395583</v>
+        <v>963.6502255395581</v>
       </c>
       <c r="V16" t="n">
-        <v>817.1511268422371</v>
+        <v>817.1511268422369</v>
       </c>
       <c r="W16" t="n">
-        <v>645.2309311038924</v>
+        <v>645.2309311038923</v>
       </c>
       <c r="X16" t="n">
         <v>528.2146727435244</v>
@@ -5498,13 +5498,13 @@
         <v>947.1335432795149</v>
       </c>
       <c r="E17" t="n">
-        <v>719.1656742743978</v>
+        <v>719.1656742743979</v>
       </c>
       <c r="F17" t="n">
-        <v>471.8323344733445</v>
+        <v>471.8323344733443</v>
       </c>
       <c r="G17" t="n">
-        <v>222.5629431610319</v>
+        <v>222.5629431610317</v>
       </c>
       <c r="H17" t="n">
         <v>56.73100266751432</v>
@@ -5516,31 +5516,31 @@
         <v>124.7686097247668</v>
       </c>
       <c r="K17" t="n">
-        <v>403.8221144638352</v>
+        <v>366.9965393351849</v>
       </c>
       <c r="L17" t="n">
-        <v>754.2972873034191</v>
+        <v>717.4717121747688</v>
       </c>
       <c r="M17" t="n">
-        <v>1313.916280440621</v>
+        <v>1226.112581624941</v>
       </c>
       <c r="N17" t="n">
-        <v>1695.175918485905</v>
+        <v>1607.372219670225</v>
       </c>
       <c r="O17" t="n">
-        <v>2002.945594119864</v>
+        <v>1915.141895304183</v>
       </c>
       <c r="P17" t="n">
-        <v>2233.462431909292</v>
+        <v>2309.156908749701</v>
       </c>
       <c r="Q17" t="n">
-        <v>2493.165078911115</v>
+        <v>2568.859555751524</v>
       </c>
       <c r="R17" t="n">
         <v>2568.859555751524</v>
       </c>
       <c r="S17" t="n">
-        <v>2548.829993026035</v>
+        <v>2548.829993026036</v>
       </c>
       <c r="T17" t="n">
         <v>2491.362196014849</v>
@@ -5549,10 +5549,10 @@
         <v>2403.296050165197</v>
       </c>
       <c r="V17" t="n">
-        <v>2233.134626949914</v>
+        <v>2233.134626949915</v>
       </c>
       <c r="W17" t="n">
-        <v>2037.417547696291</v>
+        <v>2037.417547696292</v>
       </c>
       <c r="X17" t="n">
         <v>1822.205258106561</v>
@@ -5568,31 +5568,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>930.2860100971777</v>
+        <v>930.2860100971782</v>
       </c>
       <c r="C18" t="n">
-        <v>768.5823373381324</v>
+        <v>768.5823373381329</v>
       </c>
       <c r="D18" t="n">
-        <v>629.7437003283445</v>
+        <v>629.743700328345</v>
       </c>
       <c r="E18" t="n">
-        <v>482.7156903852157</v>
+        <v>482.7156903852162</v>
       </c>
       <c r="F18" t="n">
-        <v>348.0218923350901</v>
+        <v>348.0218923350906</v>
       </c>
       <c r="G18" t="n">
-        <v>219.3023513726292</v>
+        <v>219.3023513726286</v>
       </c>
       <c r="H18" t="n">
-        <v>119.4510191359434</v>
+        <v>119.4510191359428</v>
       </c>
       <c r="I18" t="n">
         <v>51.37719111503048</v>
       </c>
       <c r="J18" t="n">
-        <v>112.460924061068</v>
+        <v>112.4609240610681</v>
       </c>
       <c r="K18" t="n">
         <v>343.3693719355363</v>
@@ -5622,13 +5622,13 @@
         <v>2356.99845438182</v>
       </c>
       <c r="T18" t="n">
-        <v>2168.349461662278</v>
+        <v>2168.349461662279</v>
       </c>
       <c r="U18" t="n">
-        <v>1949.855258669421</v>
+        <v>1949.855258669422</v>
       </c>
       <c r="V18" t="n">
-        <v>1721.459636117755</v>
+        <v>1721.459636117756</v>
       </c>
       <c r="W18" t="n">
         <v>1480.143767351065</v>
@@ -5647,52 +5647,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>54.17530976457406</v>
+        <v>54.17530976457407</v>
       </c>
       <c r="C19" t="n">
         <v>51.37719111503048</v>
       </c>
       <c r="D19" t="n">
-        <v>64.84960427301021</v>
+        <v>51.37719111503048</v>
       </c>
       <c r="E19" t="n">
-        <v>79.36374507376829</v>
+        <v>51.37719111503048</v>
       </c>
       <c r="F19" t="n">
-        <v>79.36374507376829</v>
+        <v>65.42907683088411</v>
       </c>
       <c r="G19" t="n">
-        <v>77.26935826699263</v>
+        <v>63.33469002410845</v>
       </c>
       <c r="H19" t="n">
-        <v>77.26935826699263</v>
+        <v>70.69718625066226</v>
       </c>
       <c r="I19" t="n">
-        <v>77.26935826699263</v>
+        <v>81.77962293590546</v>
       </c>
       <c r="J19" t="n">
-        <v>77.26935826699263</v>
+        <v>81.77962293590546</v>
       </c>
       <c r="K19" t="n">
-        <v>111.7288148598865</v>
+        <v>116.2390795287993</v>
       </c>
       <c r="L19" t="n">
-        <v>213.4303439271482</v>
+        <v>217.940608596061</v>
       </c>
       <c r="M19" t="n">
-        <v>332.5777937754371</v>
+        <v>337.0880584443499</v>
       </c>
       <c r="N19" t="n">
-        <v>452.1266410432378</v>
+        <v>456.6369057121506</v>
       </c>
       <c r="O19" t="n">
-        <v>573.4239385175567</v>
+        <v>556.1410623840999</v>
       </c>
       <c r="P19" t="n">
-        <v>637.2827584551721</v>
+        <v>619.9998823217153</v>
       </c>
       <c r="Q19" t="n">
-        <v>637.2827584551721</v>
+        <v>619.9998823217153</v>
       </c>
       <c r="R19" t="n">
         <v>637.2827584551721</v>
@@ -5729,70 +5729,70 @@
         <v>1368.255564941932</v>
       </c>
       <c r="C20" t="n">
-        <v>1153.139657163515</v>
+        <v>1153.139657163516</v>
       </c>
       <c r="D20" t="n">
-        <v>947.1335432795146</v>
+        <v>947.1335432795154</v>
       </c>
       <c r="E20" t="n">
-        <v>719.1656742743976</v>
+        <v>719.1656742743983</v>
       </c>
       <c r="F20" t="n">
-        <v>471.832334473344</v>
+        <v>471.8323344733446</v>
       </c>
       <c r="G20" t="n">
-        <v>222.5629431610314</v>
+        <v>222.5629431610317</v>
       </c>
       <c r="H20" t="n">
-        <v>56.73100266751478</v>
+        <v>56.73100266751435</v>
       </c>
       <c r="I20" t="n">
         <v>51.37719111503048</v>
       </c>
       <c r="J20" t="n">
-        <v>288.2667853808563</v>
+        <v>237.2886616938259</v>
       </c>
       <c r="K20" t="n">
-        <v>693.9928906473639</v>
+        <v>479.516591304244</v>
       </c>
       <c r="L20" t="n">
-        <v>1044.468063486948</v>
+        <v>829.9917641438279</v>
       </c>
       <c r="M20" t="n">
-        <v>1440.58888096806</v>
+        <v>1226.112581624941</v>
       </c>
       <c r="N20" t="n">
-        <v>1821.848519013344</v>
+        <v>1770.870395326314</v>
       </c>
       <c r="O20" t="n">
-        <v>2129.618194647303</v>
+        <v>2078.640070960273</v>
       </c>
       <c r="P20" t="n">
-        <v>2360.135032436731</v>
+        <v>2472.655084405791</v>
       </c>
       <c r="Q20" t="n">
-        <v>2493.165078911115</v>
+        <v>2568.859555751524</v>
       </c>
       <c r="R20" t="n">
         <v>2568.859555751524</v>
       </c>
       <c r="S20" t="n">
-        <v>2548.829993026035</v>
+        <v>2548.829993026036</v>
       </c>
       <c r="T20" t="n">
-        <v>2491.362196014848</v>
+        <v>2491.362196014849</v>
       </c>
       <c r="U20" t="n">
-        <v>2403.296050165196</v>
+        <v>2403.296050165197</v>
       </c>
       <c r="V20" t="n">
-        <v>2233.134626949914</v>
+        <v>2233.134626949915</v>
       </c>
       <c r="W20" t="n">
-        <v>2037.417547696291</v>
+        <v>2037.417547696292</v>
       </c>
       <c r="X20" t="n">
-        <v>1822.205258106561</v>
+        <v>1822.205258106562</v>
       </c>
       <c r="Y20" t="n">
         <v>1595.481253571175</v>
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>930.2860100971772</v>
+        <v>930.2860100971782</v>
       </c>
       <c r="C21" t="n">
-        <v>768.5823373381319</v>
+        <v>768.5823373381329</v>
       </c>
       <c r="D21" t="n">
-        <v>629.7437003283439</v>
+        <v>629.743700328345</v>
       </c>
       <c r="E21" t="n">
-        <v>482.7156903852151</v>
+        <v>482.7156903852162</v>
       </c>
       <c r="F21" t="n">
-        <v>348.0218923350895</v>
+        <v>348.0218923350906</v>
       </c>
       <c r="G21" t="n">
-        <v>219.3023513726286</v>
+        <v>219.3023513726297</v>
       </c>
       <c r="H21" t="n">
-        <v>119.4510191359428</v>
+        <v>119.4510191359439</v>
       </c>
       <c r="I21" t="n">
         <v>51.37719111503048</v>
@@ -5835,7 +5835,7 @@
         <v>343.3693719355363</v>
       </c>
       <c r="L21" t="n">
-        <v>711.0977523348506</v>
+        <v>711.0977523348508</v>
       </c>
       <c r="M21" t="n">
         <v>1198.355942532095</v>
@@ -5853,28 +5853,28 @@
         <v>2568.859555751524</v>
       </c>
       <c r="R21" t="n">
-        <v>2509.631531608693</v>
+        <v>2509.631531608694</v>
       </c>
       <c r="S21" t="n">
         <v>2356.99845438182</v>
       </c>
       <c r="T21" t="n">
-        <v>2168.349461662278</v>
+        <v>2168.349461662279</v>
       </c>
       <c r="U21" t="n">
-        <v>1949.855258669421</v>
+        <v>1949.855258669422</v>
       </c>
       <c r="V21" t="n">
-        <v>1721.459636117755</v>
+        <v>1721.459636117756</v>
       </c>
       <c r="W21" t="n">
         <v>1480.143767351065</v>
       </c>
       <c r="X21" t="n">
-        <v>1282.226779228859</v>
+        <v>1282.22677922886</v>
       </c>
       <c r="Y21" t="n">
-        <v>1089.705452878438</v>
+        <v>1089.705452878439</v>
       </c>
     </row>
     <row r="22">
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>56.26969657134972</v>
+        <v>54.1753097645741</v>
       </c>
       <c r="C22" t="n">
-        <v>53.47157792180614</v>
+        <v>51.37719111503048</v>
       </c>
       <c r="D22" t="n">
-        <v>53.47157792180614</v>
+        <v>51.37719111503048</v>
       </c>
       <c r="E22" t="n">
-        <v>53.47157792180614</v>
+        <v>51.37719111503048</v>
       </c>
       <c r="F22" t="n">
-        <v>53.47157792180614</v>
+        <v>53.47157792180617</v>
       </c>
       <c r="G22" t="n">
         <v>51.37719111503048</v>
@@ -5911,7 +5911,7 @@
         <v>51.37719111503048</v>
       </c>
       <c r="K22" t="n">
-        <v>85.83664770792433</v>
+        <v>85.83664770792434</v>
       </c>
       <c r="L22" t="n">
         <v>187.538176775186</v>
@@ -5929,31 +5929,31 @@
         <v>589.5974505008403</v>
       </c>
       <c r="Q22" t="n">
-        <v>622.094269128491</v>
+        <v>637.2827584551724</v>
       </c>
       <c r="R22" t="n">
-        <v>639.3771452619478</v>
+        <v>637.2827584551724</v>
       </c>
       <c r="S22" t="n">
-        <v>592.6161286949457</v>
+        <v>590.5217418881703</v>
       </c>
       <c r="T22" t="n">
-        <v>526.2871185830476</v>
+        <v>524.192731776272</v>
       </c>
       <c r="U22" t="n">
-        <v>405.9151396483744</v>
+        <v>403.8207528415988</v>
       </c>
       <c r="V22" t="n">
-        <v>311.9976860955731</v>
+        <v>309.9032992887975</v>
       </c>
       <c r="W22" t="n">
-        <v>192.6591355017483</v>
+        <v>190.5647486949728</v>
       </c>
       <c r="X22" t="n">
-        <v>128.2245222859002</v>
+        <v>126.1301354791246</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.00721436695342</v>
+        <v>70.91282756017782</v>
       </c>
     </row>
     <row r="23">
@@ -5963,64 +5963,64 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1368.255564941931</v>
+        <v>1368.255564941932</v>
       </c>
       <c r="C23" t="n">
         <v>1153.139657163515</v>
       </c>
       <c r="D23" t="n">
-        <v>947.1335432795148</v>
+        <v>947.1335432795152</v>
       </c>
       <c r="E23" t="n">
-        <v>719.1656742743978</v>
+        <v>719.165674274398</v>
       </c>
       <c r="F23" t="n">
-        <v>471.8323344733443</v>
+        <v>471.8323344733444</v>
       </c>
       <c r="G23" t="n">
         <v>222.5629431610317</v>
       </c>
       <c r="H23" t="n">
-        <v>56.73100266751431</v>
+        <v>56.73100266751435</v>
       </c>
       <c r="I23" t="n">
         <v>51.37719111503048</v>
       </c>
       <c r="J23" t="n">
-        <v>288.2667853808563</v>
+        <v>237.2886616938254</v>
       </c>
       <c r="K23" t="n">
-        <v>693.9928906473639</v>
+        <v>479.5165913042435</v>
       </c>
       <c r="L23" t="n">
-        <v>1044.468063486948</v>
+        <v>993.4899397999169</v>
       </c>
       <c r="M23" t="n">
-        <v>1440.58888096806</v>
+        <v>1389.61075728103</v>
       </c>
       <c r="N23" t="n">
-        <v>1821.848519013344</v>
+        <v>1770.870395326313</v>
       </c>
       <c r="O23" t="n">
-        <v>2129.618194647303</v>
+        <v>2242.138246616362</v>
       </c>
       <c r="P23" t="n">
-        <v>2360.135032436731</v>
+        <v>2472.65508440579</v>
       </c>
       <c r="Q23" t="n">
-        <v>2493.165078911114</v>
+        <v>2568.859555751524</v>
       </c>
       <c r="R23" t="n">
-        <v>2568.859555751523</v>
+        <v>2568.859555751524</v>
       </c>
       <c r="S23" t="n">
         <v>2548.829993026035</v>
       </c>
       <c r="T23" t="n">
-        <v>2491.362196014848</v>
+        <v>2491.362196014849</v>
       </c>
       <c r="U23" t="n">
-        <v>2403.296050165196</v>
+        <v>2403.296050165197</v>
       </c>
       <c r="V23" t="n">
         <v>2233.134626949914</v>
@@ -6029,10 +6029,10 @@
         <v>2037.417547696291</v>
       </c>
       <c r="X23" t="n">
-        <v>1822.20525810656</v>
+        <v>1822.205258106561</v>
       </c>
       <c r="Y23" t="n">
-        <v>1595.481253571174</v>
+        <v>1595.481253571175</v>
       </c>
     </row>
     <row r="24">
@@ -6042,37 +6042,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>930.2860100971774</v>
+        <v>930.2860100971782</v>
       </c>
       <c r="C24" t="n">
-        <v>768.5823373381322</v>
+        <v>768.5823373381329</v>
       </c>
       <c r="D24" t="n">
-        <v>629.7437003283444</v>
+        <v>629.743700328345</v>
       </c>
       <c r="E24" t="n">
-        <v>482.7156903852156</v>
+        <v>482.7156903852162</v>
       </c>
       <c r="F24" t="n">
-        <v>348.0218923350899</v>
+        <v>348.0218923350906</v>
       </c>
       <c r="G24" t="n">
-        <v>219.3023513726286</v>
+        <v>219.3023513726297</v>
       </c>
       <c r="H24" t="n">
-        <v>119.4510191359428</v>
+        <v>119.4510191359439</v>
       </c>
       <c r="I24" t="n">
         <v>51.37719111503048</v>
       </c>
       <c r="J24" t="n">
-        <v>112.4609240610678</v>
+        <v>112.4609240610681</v>
       </c>
       <c r="K24" t="n">
-        <v>343.369371935536</v>
+        <v>343.3693719355363</v>
       </c>
       <c r="L24" t="n">
-        <v>711.0977523348504</v>
+        <v>711.0977523348506</v>
       </c>
       <c r="M24" t="n">
         <v>1198.355942532095</v>
@@ -6096,22 +6096,22 @@
         <v>2356.99845438182</v>
       </c>
       <c r="T24" t="n">
-        <v>2168.349461662278</v>
+        <v>2168.349461662279</v>
       </c>
       <c r="U24" t="n">
-        <v>1949.855258669421</v>
+        <v>1949.855258669422</v>
       </c>
       <c r="V24" t="n">
-        <v>1721.459636117755</v>
+        <v>1721.459636117756</v>
       </c>
       <c r="W24" t="n">
         <v>1480.143767351065</v>
       </c>
       <c r="X24" t="n">
-        <v>1282.226779228859</v>
+        <v>1282.22677922886</v>
       </c>
       <c r="Y24" t="n">
-        <v>1089.705452878438</v>
+        <v>1089.705452878439</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>54.17530976457406</v>
+        <v>54.1753097645741</v>
       </c>
       <c r="C25" t="n">
         <v>51.37719111503048</v>
       </c>
       <c r="D25" t="n">
-        <v>64.84960427301021</v>
+        <v>51.37719111503048</v>
       </c>
       <c r="E25" t="n">
-        <v>79.36374507376829</v>
+        <v>53.47157792180617</v>
       </c>
       <c r="F25" t="n">
-        <v>83.87400974268112</v>
+        <v>53.47157792180617</v>
       </c>
       <c r="G25" t="n">
-        <v>81.77962293590546</v>
+        <v>51.37719111503048</v>
       </c>
       <c r="H25" t="n">
-        <v>81.77962293590546</v>
+        <v>58.73968734158425</v>
       </c>
       <c r="I25" t="n">
-        <v>81.77962293590546</v>
+        <v>58.73968734158425</v>
       </c>
       <c r="J25" t="n">
-        <v>81.77962293590546</v>
+        <v>58.73968734158425</v>
       </c>
       <c r="K25" t="n">
-        <v>116.2390795287993</v>
+        <v>93.19914393447812</v>
       </c>
       <c r="L25" t="n">
-        <v>217.940608596061</v>
+        <v>194.9006730017398</v>
       </c>
       <c r="M25" t="n">
-        <v>337.0880584443499</v>
+        <v>314.0481228500287</v>
       </c>
       <c r="N25" t="n">
-        <v>456.6369057121506</v>
+        <v>433.5969701178294</v>
       </c>
       <c r="O25" t="n">
-        <v>556.1410623840999</v>
+        <v>533.1011267897787</v>
       </c>
       <c r="P25" t="n">
-        <v>619.9998823217153</v>
+        <v>619.9998823217156</v>
       </c>
       <c r="Q25" t="n">
-        <v>619.9998823217153</v>
+        <v>619.9998823217156</v>
       </c>
       <c r="R25" t="n">
-        <v>637.2827584551721</v>
+        <v>637.2827584551724</v>
       </c>
       <c r="S25" t="n">
-        <v>590.52174188817</v>
+        <v>590.5217418881703</v>
       </c>
       <c r="T25" t="n">
-        <v>524.1927317762719</v>
+        <v>524.192731776272</v>
       </c>
       <c r="U25" t="n">
-        <v>403.8207528415987</v>
+        <v>403.8207528415988</v>
       </c>
       <c r="V25" t="n">
-        <v>309.9032992887974</v>
+        <v>309.9032992887975</v>
       </c>
       <c r="W25" t="n">
-        <v>190.5647486949726</v>
+        <v>190.5647486949728</v>
       </c>
       <c r="X25" t="n">
-        <v>126.1301354791245</v>
+        <v>126.1301354791246</v>
       </c>
       <c r="Y25" t="n">
-        <v>70.91282756017776</v>
+        <v>70.91282756017782</v>
       </c>
     </row>
     <row r="26">
@@ -6206,25 +6206,25 @@
         <v>1403.088672910909</v>
       </c>
       <c r="D26" t="n">
-        <v>1157.446630963407</v>
+        <v>1157.446630963406</v>
       </c>
       <c r="E26" t="n">
-        <v>889.842833894787</v>
+        <v>889.8428338947865</v>
       </c>
       <c r="F26" t="n">
-        <v>602.8735660302309</v>
+        <v>602.8735660302304</v>
       </c>
       <c r="G26" t="n">
-        <v>313.968246654415</v>
+        <v>313.9682466544148</v>
       </c>
       <c r="H26" t="n">
-        <v>108.5003780973951</v>
+        <v>108.5003780973949</v>
       </c>
       <c r="I26" t="n">
-        <v>63.51063848140879</v>
+        <v>63.51063848140858</v>
       </c>
       <c r="J26" t="n">
-        <v>261.5530596521958</v>
+        <v>261.5530596521959</v>
       </c>
       <c r="K26" t="n">
         <v>628.4319918236646</v>
@@ -6236,19 +6236,19 @@
         <v>1624.329987266463</v>
       </c>
       <c r="N26" t="n">
-        <v>2130.240627872797</v>
+        <v>2130.240627872798</v>
       </c>
       <c r="O26" t="n">
-        <v>2562.661306067806</v>
+        <v>2562.661306067807</v>
       </c>
       <c r="P26" t="n">
-        <v>2917.829146418285</v>
+        <v>2917.829146418286</v>
       </c>
       <c r="Q26" t="n">
-        <v>3138.684620325069</v>
+        <v>3138.68462032507</v>
       </c>
       <c r="R26" t="n">
-        <v>3175.531924070439</v>
+        <v>3175.53192407044</v>
       </c>
       <c r="S26" t="n">
         <v>3115.866433281449</v>
@@ -6257,10 +6257,10 @@
         <v>3018.76270820676</v>
       </c>
       <c r="U26" t="n">
-        <v>2891.060634293606</v>
+        <v>2891.060634293605</v>
       </c>
       <c r="V26" t="n">
-        <v>2681.263283014821</v>
+        <v>2681.26328301482</v>
       </c>
       <c r="W26" t="n">
         <v>2445.910275697695</v>
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>942.4194574635554</v>
+        <v>942.4194574635565</v>
       </c>
       <c r="C27" t="n">
-        <v>780.7157847045102</v>
+        <v>780.7157847045112</v>
       </c>
       <c r="D27" t="n">
-        <v>641.8771476947222</v>
+        <v>641.8771476947232</v>
       </c>
       <c r="E27" t="n">
-        <v>494.8491377515935</v>
+        <v>494.8491377515945</v>
       </c>
       <c r="F27" t="n">
-        <v>360.1553397014678</v>
+        <v>360.1553397014688</v>
       </c>
       <c r="G27" t="n">
-        <v>231.4357987390069</v>
+        <v>231.435798739008</v>
       </c>
       <c r="H27" t="n">
-        <v>131.5844665023211</v>
+        <v>131.5844665023222</v>
       </c>
       <c r="I27" t="n">
-        <v>63.51063848140879</v>
+        <v>63.5106384814088</v>
       </c>
       <c r="J27" t="n">
         <v>124.5943714274464</v>
@@ -6327,28 +6327,28 @@
         <v>2580.993003117902</v>
       </c>
       <c r="R27" t="n">
-        <v>2521.764978975072</v>
+        <v>2521.764978975073</v>
       </c>
       <c r="S27" t="n">
-        <v>2369.131901748198</v>
+        <v>2369.131901748199</v>
       </c>
       <c r="T27" t="n">
-        <v>2180.482909028656</v>
+        <v>2180.482909028657</v>
       </c>
       <c r="U27" t="n">
-        <v>1961.988706035799</v>
+        <v>1961.9887060358</v>
       </c>
       <c r="V27" t="n">
-        <v>1733.593083484133</v>
+        <v>1733.593083484134</v>
       </c>
       <c r="W27" t="n">
-        <v>1492.277214717443</v>
+        <v>1492.277214717444</v>
       </c>
       <c r="X27" t="n">
-        <v>1294.360226595237</v>
+        <v>1294.360226595238</v>
       </c>
       <c r="Y27" t="n">
-        <v>1101.838900244816</v>
+        <v>1101.838900244817</v>
       </c>
     </row>
     <row r="28">
@@ -6376,31 +6376,31 @@
         <v>112.4298290465464</v>
       </c>
       <c r="H28" t="n">
-        <v>80.30588570557603</v>
+        <v>80.30588570557605</v>
       </c>
       <c r="I28" t="n">
-        <v>63.51063848140879</v>
+        <v>63.5106384814088</v>
       </c>
       <c r="J28" t="n">
-        <v>70.48575069693698</v>
+        <v>63.5106384814088</v>
       </c>
       <c r="K28" t="n">
-        <v>229.5962098508815</v>
+        <v>222.6210976353533</v>
       </c>
       <c r="L28" t="n">
-        <v>331.2977389181432</v>
+        <v>448.9736292636657</v>
       </c>
       <c r="M28" t="n">
-        <v>450.4451887664321</v>
+        <v>692.7720816730052</v>
       </c>
       <c r="N28" t="n">
-        <v>694.6450385952835</v>
+        <v>906.7930181055897</v>
       </c>
       <c r="O28" t="n">
-        <v>918.8001978282834</v>
+        <v>1130.94817733859</v>
       </c>
       <c r="P28" t="n">
-        <v>1107.31002032695</v>
+        <v>1194.806997276205</v>
       </c>
       <c r="Q28" t="n">
         <v>1194.806997276205</v>
@@ -6446,52 +6446,52 @@
         <v>1157.446630963405</v>
       </c>
       <c r="E29" t="n">
-        <v>889.8428338947858</v>
+        <v>889.8428338947851</v>
       </c>
       <c r="F29" t="n">
-        <v>602.8735660302298</v>
+        <v>602.8735660302291</v>
       </c>
       <c r="G29" t="n">
-        <v>313.9682466544151</v>
+        <v>313.9682466544135</v>
       </c>
       <c r="H29" t="n">
-        <v>108.5003780973951</v>
+        <v>108.5003780973952</v>
       </c>
       <c r="I29" t="n">
-        <v>63.51063848140878</v>
+        <v>63.51063848140879</v>
       </c>
       <c r="J29" t="n">
-        <v>261.5530596521959</v>
+        <v>261.5530596521957</v>
       </c>
       <c r="K29" t="n">
-        <v>628.4319918236647</v>
+        <v>628.4319918236644</v>
       </c>
       <c r="L29" t="n">
         <v>1103.558167224299</v>
       </c>
       <c r="M29" t="n">
-        <v>1624.329987266462</v>
+        <v>1624.329987266463</v>
       </c>
       <c r="N29" t="n">
-        <v>2130.240627872797</v>
+        <v>2130.240627872798</v>
       </c>
       <c r="O29" t="n">
-        <v>2562.661306067806</v>
+        <v>2562.661306067807</v>
       </c>
       <c r="P29" t="n">
-        <v>2917.829146418285</v>
+        <v>2917.829146418286</v>
       </c>
       <c r="Q29" t="n">
-        <v>3138.684620325069</v>
+        <v>3138.68462032507</v>
       </c>
       <c r="R29" t="n">
         <v>3175.531924070439</v>
       </c>
       <c r="S29" t="n">
-        <v>3115.866433281448</v>
+        <v>3115.866433281449</v>
       </c>
       <c r="T29" t="n">
-        <v>3018.762708206759</v>
+        <v>3018.76270820676</v>
       </c>
       <c r="U29" t="n">
         <v>2891.060634293605</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>272.6099845391913</v>
+        <v>272.6099845391915</v>
       </c>
       <c r="C31" t="n">
-        <v>230.1759378261451</v>
+        <v>230.1759378261453</v>
       </c>
       <c r="D31" t="n">
-        <v>204.2859674791815</v>
+        <v>204.2859674791816</v>
       </c>
       <c r="E31" t="n">
-        <v>179.4588760657739</v>
+        <v>179.458876065774</v>
       </c>
       <c r="F31" t="n">
-        <v>154.1601439168246</v>
+        <v>154.1601439168247</v>
       </c>
       <c r="G31" t="n">
-        <v>112.4298290465464</v>
+        <v>112.4298290465465</v>
       </c>
       <c r="H31" t="n">
-        <v>80.30588570557606</v>
+        <v>80.30588570557609</v>
       </c>
       <c r="I31" t="n">
         <v>63.51063848140879</v>
@@ -6622,49 +6622,49 @@
         <v>129.8199973599552</v>
       </c>
       <c r="K31" t="n">
-        <v>288.9304565138997</v>
+        <v>229.5962098508831</v>
       </c>
       <c r="L31" t="n">
-        <v>515.282988142212</v>
+        <v>455.9487414791954</v>
       </c>
       <c r="M31" t="n">
-        <v>699.747193888534</v>
+        <v>575.0961913274843</v>
       </c>
       <c r="N31" t="n">
-        <v>943.9470437173853</v>
+        <v>694.645038595285</v>
       </c>
       <c r="O31" t="n">
-        <v>1043.451200389335</v>
+        <v>918.8001978282849</v>
       </c>
       <c r="P31" t="n">
-        <v>1107.31002032695</v>
+        <v>1107.310020326951</v>
       </c>
       <c r="Q31" t="n">
-        <v>1194.806997276205</v>
+        <v>1194.806997276206</v>
       </c>
       <c r="R31" t="n">
-        <v>1172.804857737809</v>
+        <v>1172.80485773781</v>
       </c>
       <c r="S31" t="n">
         <v>1086.407913107305</v>
       </c>
       <c r="T31" t="n">
-        <v>980.4429749319042</v>
+        <v>980.4429749319047</v>
       </c>
       <c r="U31" t="n">
-        <v>820.4350679337285</v>
+        <v>820.435067933729</v>
       </c>
       <c r="V31" t="n">
-        <v>686.8816863174247</v>
+        <v>686.8816863174252</v>
       </c>
       <c r="W31" t="n">
-        <v>527.9072076600975</v>
+        <v>527.9072076600978</v>
       </c>
       <c r="X31" t="n">
-        <v>423.8366663807468</v>
+        <v>423.8366663807471</v>
       </c>
       <c r="Y31" t="n">
-        <v>328.9834303982975</v>
+        <v>328.9834303982977</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1536.514972066721</v>
+        <v>1536.514972066718</v>
       </c>
       <c r="C32" t="n">
-        <v>1298.369145436029</v>
+        <v>1298.369145436026</v>
       </c>
       <c r="D32" t="n">
-        <v>1069.333112699753</v>
+        <v>1069.333112699751</v>
       </c>
       <c r="E32" t="n">
-        <v>818.3353248423605</v>
+        <v>818.3353248423589</v>
       </c>
       <c r="F32" t="n">
-        <v>547.9720661890314</v>
+        <v>547.97206618903</v>
       </c>
       <c r="G32" t="n">
-        <v>275.6727560244431</v>
+        <v>275.6727560244419</v>
       </c>
       <c r="H32" t="n">
-        <v>86.81089667864987</v>
+        <v>86.81089667864956</v>
       </c>
       <c r="I32" t="n">
-        <v>58.42716627389036</v>
+        <v>58.42716627389028</v>
       </c>
       <c r="J32" t="n">
-        <v>272.7451370726008</v>
+        <v>272.7451370726009</v>
       </c>
       <c r="K32" t="n">
-        <v>655.899618871993</v>
+        <v>655.8996188719933</v>
       </c>
       <c r="L32" t="n">
-        <v>1147.301343900551</v>
+        <v>1086.707216832074</v>
       </c>
       <c r="M32" t="n">
-        <v>1623.754586502165</v>
+        <v>1482.828034313187</v>
       </c>
       <c r="N32" t="n">
-        <v>2145.940776736423</v>
+        <v>2005.014224547445</v>
       </c>
       <c r="O32" t="n">
-        <v>2594.637004559356</v>
+        <v>2312.783900181404</v>
       </c>
       <c r="P32" t="n">
-        <v>2825.153842348785</v>
+        <v>2684.227290159806</v>
       </c>
       <c r="Q32" t="n">
-        <v>2921.358313694518</v>
+        <v>2921.358313694514</v>
       </c>
       <c r="R32" t="n">
-        <v>2921.358313694518</v>
+        <v>2921.358313694514</v>
       </c>
       <c r="S32" t="n">
-        <v>2878.298832116755</v>
+        <v>2878.29883211675</v>
       </c>
       <c r="T32" t="n">
-        <v>2797.801116253292</v>
+        <v>2797.801116253288</v>
       </c>
       <c r="U32" t="n">
-        <v>2686.705051551365</v>
+        <v>2686.705051551361</v>
       </c>
       <c r="V32" t="n">
-        <v>2493.513709483806</v>
+        <v>2493.513709483803</v>
       </c>
       <c r="W32" t="n">
-        <v>2274.766711377908</v>
+        <v>2274.766711377904</v>
       </c>
       <c r="X32" t="n">
-        <v>2036.524502935902</v>
+        <v>2036.524502935898</v>
       </c>
       <c r="Y32" t="n">
-        <v>1786.77057954824</v>
+        <v>1786.770579548237</v>
       </c>
     </row>
     <row r="33">
@@ -6765,28 +6765,28 @@
         <v>489.765665544075</v>
       </c>
       <c r="F33" t="n">
-        <v>355.0718674939494</v>
+        <v>355.0718674939493</v>
       </c>
       <c r="G33" t="n">
-        <v>226.3523265314885</v>
+        <v>226.3523265314884</v>
       </c>
       <c r="H33" t="n">
-        <v>126.5009942948027</v>
+        <v>126.5009942948026</v>
       </c>
       <c r="I33" t="n">
-        <v>58.42716627389036</v>
+        <v>58.42716627389028</v>
       </c>
       <c r="J33" t="n">
-        <v>119.5108992199279</v>
+        <v>119.5108992199269</v>
       </c>
       <c r="K33" t="n">
-        <v>350.4193470943961</v>
+        <v>350.4193470943951</v>
       </c>
       <c r="L33" t="n">
-        <v>718.1477274937105</v>
+        <v>718.1477274937095</v>
       </c>
       <c r="M33" t="n">
-        <v>1205.405917690955</v>
+        <v>1205.405917690954</v>
       </c>
       <c r="N33" t="n">
         <v>1718.955285307991</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>151.2844478530847</v>
+        <v>151.2844478530831</v>
       </c>
       <c r="C34" t="n">
-        <v>125.4564103512655</v>
+        <v>125.456410351264</v>
       </c>
       <c r="D34" t="n">
-        <v>116.1724492155287</v>
+        <v>116.1724492155275</v>
       </c>
       <c r="E34" t="n">
-        <v>107.951367013348</v>
+        <v>107.951367013347</v>
       </c>
       <c r="F34" t="n">
-        <v>99.25864407562557</v>
+        <v>99.2586440756248</v>
       </c>
       <c r="G34" t="n">
-        <v>74.13433841657425</v>
+        <v>74.1343384165737</v>
       </c>
       <c r="H34" t="n">
-        <v>58.61640428683077</v>
+        <v>58.61640428683045</v>
       </c>
       <c r="I34" t="n">
-        <v>58.42716627389036</v>
+        <v>58.42716627389028</v>
       </c>
       <c r="J34" t="n">
-        <v>141.0120747803603</v>
+        <v>58.42716627389028</v>
       </c>
       <c r="K34" t="n">
-        <v>316.3980835622282</v>
+        <v>92.88662286678414</v>
       </c>
       <c r="L34" t="n">
-        <v>521.9681039634031</v>
+        <v>335.5147041230201</v>
       </c>
       <c r="M34" t="n">
-        <v>641.1155538116921</v>
+        <v>454.6621539713091</v>
       </c>
       <c r="N34" t="n">
-        <v>760.6644010794927</v>
+        <v>574.2110012391097</v>
       </c>
       <c r="O34" t="n">
-        <v>860.168557751442</v>
+        <v>673.715157911059</v>
       </c>
       <c r="P34" t="n">
-        <v>924.0273776890574</v>
+        <v>820.2548511118746</v>
       </c>
       <c r="Q34" t="n">
-        <v>924.0273776890574</v>
+        <v>924.0273776890537</v>
       </c>
       <c r="R34" t="n">
-        <v>918.6312473618882</v>
+        <v>918.6312473618847</v>
       </c>
       <c r="S34" t="n">
-        <v>848.8403119426105</v>
+        <v>848.8403119426072</v>
       </c>
       <c r="T34" t="n">
-        <v>759.4813829784366</v>
+        <v>759.4813829784335</v>
       </c>
       <c r="U34" t="n">
-        <v>616.0794851914877</v>
+        <v>616.0794851914849</v>
       </c>
       <c r="V34" t="n">
-        <v>499.1321127864107</v>
+        <v>499.1321127864081</v>
       </c>
       <c r="W34" t="n">
-        <v>356.7636433403104</v>
+        <v>356.763643340308</v>
       </c>
       <c r="X34" t="n">
-        <v>269.2991112721866</v>
+        <v>269.2991112721844</v>
       </c>
       <c r="Y34" t="n">
-        <v>191.0518845009641</v>
+        <v>191.0518845009622</v>
       </c>
     </row>
     <row r="35">
@@ -6926,19 +6926,19 @@
         <v>471.8323344733445</v>
       </c>
       <c r="G35" t="n">
-        <v>222.5629431610318</v>
+        <v>222.5629431610317</v>
       </c>
       <c r="H35" t="n">
-        <v>56.73100266751438</v>
+        <v>56.73100266751435</v>
       </c>
       <c r="I35" t="n">
         <v>51.37719111503048</v>
       </c>
       <c r="J35" t="n">
-        <v>288.2667853808562</v>
+        <v>288.2667853808563</v>
       </c>
       <c r="K35" t="n">
-        <v>693.9928906473638</v>
+        <v>530.4947149912743</v>
       </c>
       <c r="L35" t="n">
         <v>1044.468063486948</v>
@@ -6953,7 +6953,7 @@
         <v>2129.618194647303</v>
       </c>
       <c r="P35" t="n">
-        <v>2360.135032436731</v>
+        <v>2396.960607565382</v>
       </c>
       <c r="Q35" t="n">
         <v>2493.165078911115</v>
@@ -6999,10 +6999,10 @@
         <v>629.743700328345</v>
       </c>
       <c r="E36" t="n">
-        <v>482.7156903852162</v>
+        <v>482.7156903852151</v>
       </c>
       <c r="F36" t="n">
-        <v>348.0218923350906</v>
+        <v>348.0218923350895</v>
       </c>
       <c r="G36" t="n">
         <v>219.3023513726286</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>56.26969657134984</v>
+        <v>56.26969657134978</v>
       </c>
       <c r="C37" t="n">
-        <v>53.4715779218062</v>
+        <v>53.47157792180617</v>
       </c>
       <c r="D37" t="n">
-        <v>53.4715779218062</v>
+        <v>53.47157792180617</v>
       </c>
       <c r="E37" t="n">
-        <v>53.4715779218062</v>
+        <v>53.47157792180617</v>
       </c>
       <c r="F37" t="n">
-        <v>53.4715779218062</v>
+        <v>53.47157792180617</v>
       </c>
       <c r="G37" t="n">
         <v>51.37719111503048</v>
@@ -7102,43 +7102,43 @@
         <v>187.538176775186</v>
       </c>
       <c r="M37" t="n">
-        <v>306.6856266234749</v>
+        <v>356.4653213845827</v>
       </c>
       <c r="N37" t="n">
-        <v>426.2344738912756</v>
+        <v>476.0141686523833</v>
       </c>
       <c r="O37" t="n">
-        <v>575.5183253243331</v>
+        <v>575.5183253243326</v>
       </c>
       <c r="P37" t="n">
-        <v>639.3771452619485</v>
+        <v>639.377145261948</v>
       </c>
       <c r="Q37" t="n">
-        <v>639.3771452619485</v>
+        <v>639.377145261948</v>
       </c>
       <c r="R37" t="n">
-        <v>639.3771452619485</v>
+        <v>639.377145261948</v>
       </c>
       <c r="S37" t="n">
-        <v>592.6161286949463</v>
+        <v>592.6161286949459</v>
       </c>
       <c r="T37" t="n">
-        <v>526.287118583048</v>
+        <v>526.2871185830478</v>
       </c>
       <c r="U37" t="n">
-        <v>405.9151396483747</v>
+        <v>405.9151396483746</v>
       </c>
       <c r="V37" t="n">
-        <v>311.9976860955734</v>
+        <v>311.9976860955733</v>
       </c>
       <c r="W37" t="n">
-        <v>192.6591355017486</v>
+        <v>192.6591355017485</v>
       </c>
       <c r="X37" t="n">
-        <v>128.2245222859004</v>
+        <v>128.2245222859003</v>
       </c>
       <c r="Y37" t="n">
-        <v>73.0072143669536</v>
+        <v>73.00721436695352</v>
       </c>
     </row>
     <row r="38">
@@ -7160,46 +7160,46 @@
         <v>719.165674274398</v>
       </c>
       <c r="F38" t="n">
-        <v>471.8323344733445</v>
+        <v>471.8323344733444</v>
       </c>
       <c r="G38" t="n">
-        <v>222.5629431610319</v>
+        <v>222.5629431610317</v>
       </c>
       <c r="H38" t="n">
-        <v>56.73100266751434</v>
+        <v>56.73100266751435</v>
       </c>
       <c r="I38" t="n">
         <v>51.37719111503048</v>
       </c>
       <c r="J38" t="n">
-        <v>124.7686097247668</v>
+        <v>288.2667853808563</v>
       </c>
       <c r="K38" t="n">
-        <v>366.9965393351849</v>
+        <v>530.4947149912743</v>
       </c>
       <c r="L38" t="n">
-        <v>754.2972873034191</v>
+        <v>880.9698878308583</v>
       </c>
       <c r="M38" t="n">
-        <v>1313.916280440621</v>
+        <v>1277.090705311971</v>
       </c>
       <c r="N38" t="n">
-        <v>1695.175918485905</v>
+        <v>1658.350343357255</v>
       </c>
       <c r="O38" t="n">
-        <v>2002.945594119864</v>
+        <v>2129.618194647303</v>
       </c>
       <c r="P38" t="n">
-        <v>2233.462431909292</v>
+        <v>2360.135032436731</v>
       </c>
       <c r="Q38" t="n">
-        <v>2493.165078911115</v>
+        <v>2568.859555751524</v>
       </c>
       <c r="R38" t="n">
         <v>2568.859555751524</v>
       </c>
       <c r="S38" t="n">
-        <v>2548.829993026036</v>
+        <v>2548.829993026035</v>
       </c>
       <c r="T38" t="n">
         <v>2491.362196014849</v>
@@ -7211,7 +7211,7 @@
         <v>2233.134626949914</v>
       </c>
       <c r="W38" t="n">
-        <v>2037.417547696292</v>
+        <v>2037.417547696291</v>
       </c>
       <c r="X38" t="n">
         <v>1822.205258106561</v>
@@ -7227,31 +7227,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>930.2860100971777</v>
+        <v>930.2860100971782</v>
       </c>
       <c r="C39" t="n">
-        <v>768.5823373381324</v>
+        <v>768.5823373381329</v>
       </c>
       <c r="D39" t="n">
-        <v>629.7437003283445</v>
+        <v>629.743700328345</v>
       </c>
       <c r="E39" t="n">
-        <v>482.7156903852157</v>
+        <v>482.7156903852162</v>
       </c>
       <c r="F39" t="n">
-        <v>348.0218923350901</v>
+        <v>348.0218923350906</v>
       </c>
       <c r="G39" t="n">
-        <v>219.3023513726292</v>
+        <v>219.3023513726297</v>
       </c>
       <c r="H39" t="n">
-        <v>119.4510191359428</v>
+        <v>119.4510191359439</v>
       </c>
       <c r="I39" t="n">
         <v>51.37719111503048</v>
       </c>
       <c r="J39" t="n">
-        <v>112.460924061068</v>
+        <v>112.4609240610681</v>
       </c>
       <c r="K39" t="n">
         <v>343.3693719355363</v>
@@ -7281,13 +7281,13 @@
         <v>2356.99845438182</v>
       </c>
       <c r="T39" t="n">
-        <v>2168.349461662278</v>
+        <v>2168.349461662279</v>
       </c>
       <c r="U39" t="n">
-        <v>1949.855258669421</v>
+        <v>1949.855258669422</v>
       </c>
       <c r="V39" t="n">
-        <v>1721.459636117755</v>
+        <v>1721.459636117756</v>
       </c>
       <c r="W39" t="n">
         <v>1480.143767351065</v>
@@ -7306,52 +7306,52 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>54.17530976457409</v>
+        <v>54.1753097645741</v>
       </c>
       <c r="C40" t="n">
         <v>51.37719111503048</v>
       </c>
       <c r="D40" t="n">
-        <v>64.84960427301019</v>
+        <v>51.37719111503048</v>
       </c>
       <c r="E40" t="n">
-        <v>79.36374507376823</v>
+        <v>51.37719111503048</v>
       </c>
       <c r="F40" t="n">
-        <v>83.87400974268149</v>
+        <v>53.47157792180617</v>
       </c>
       <c r="G40" t="n">
-        <v>81.77962293590581</v>
+        <v>51.37719111503048</v>
       </c>
       <c r="H40" t="n">
-        <v>81.77962293590581</v>
+        <v>51.37719111503048</v>
       </c>
       <c r="I40" t="n">
-        <v>81.77962293590581</v>
+        <v>51.37719111503048</v>
       </c>
       <c r="J40" t="n">
-        <v>81.77962293590581</v>
+        <v>51.37719111503048</v>
       </c>
       <c r="K40" t="n">
-        <v>116.2390795287997</v>
+        <v>85.83664770792434</v>
       </c>
       <c r="L40" t="n">
-        <v>217.9406085960613</v>
+        <v>187.538176775186</v>
       </c>
       <c r="M40" t="n">
-        <v>337.0880584443503</v>
+        <v>306.6856266234749</v>
       </c>
       <c r="N40" t="n">
-        <v>456.6369057121509</v>
+        <v>426.2344738912756</v>
       </c>
       <c r="O40" t="n">
-        <v>556.1410623841002</v>
+        <v>525.7386305632249</v>
       </c>
       <c r="P40" t="n">
-        <v>619.9998823217156</v>
+        <v>637.2827584551724</v>
       </c>
       <c r="Q40" t="n">
-        <v>619.9998823217156</v>
+        <v>637.2827584551724</v>
       </c>
       <c r="R40" t="n">
         <v>637.2827584551724</v>
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1598.046121061249</v>
+        <v>1105.637786519856</v>
       </c>
       <c r="C41" t="n">
-        <v>1350.102990980073</v>
+        <v>857.6946564386801</v>
       </c>
       <c r="D41" t="n">
-        <v>1111.269654793313</v>
+        <v>618.8613202519202</v>
       </c>
       <c r="E41" t="n">
-        <v>850.4745634854362</v>
+        <v>358.0662289440436</v>
       </c>
       <c r="F41" t="n">
-        <v>570.314001381623</v>
+        <v>250.0363539113074</v>
       </c>
       <c r="G41" t="n">
-        <v>288.2173877665509</v>
+        <v>250.0363539113074</v>
       </c>
       <c r="H41" t="n">
-        <v>89.55822497027391</v>
+        <v>51.37719111503048</v>
       </c>
       <c r="I41" t="n">
         <v>51.37719111503048</v>
       </c>
       <c r="J41" t="n">
-        <v>256.0928248019216</v>
+        <v>124.7686097247668</v>
       </c>
       <c r="K41" t="n">
-        <v>498.3207544123397</v>
+        <v>366.9965393351849</v>
       </c>
       <c r="L41" t="n">
-        <v>848.7959272519237</v>
+        <v>763.0154702245426</v>
       </c>
       <c r="M41" t="n">
-        <v>1246.939986521336</v>
+        <v>1159.136287705655</v>
       </c>
       <c r="N41" t="n">
-        <v>1759.523839643774</v>
+        <v>1671.720140828094</v>
       </c>
       <c r="O41" t="n">
-        <v>2067.293515277733</v>
+        <v>1979.489816462053</v>
       </c>
       <c r="P41" t="n">
-        <v>2429.134568144316</v>
+        <v>2341.330869328636</v>
       </c>
       <c r="Q41" t="n">
-        <v>2525.33903949005</v>
+        <v>2568.859555751524</v>
       </c>
       <c r="R41" t="n">
         <v>2568.859555751524</v>
       </c>
       <c r="S41" t="n">
-        <v>2568.859555751524</v>
+        <v>2516.002770723276</v>
       </c>
       <c r="T41" t="n">
-        <v>2568.859555751524</v>
+        <v>2425.70775140933</v>
       </c>
       <c r="U41" t="n">
-        <v>2568.859555751524</v>
+        <v>2304.814383256919</v>
       </c>
       <c r="V41" t="n">
-        <v>2365.870910233481</v>
+        <v>2101.825737738876</v>
       </c>
       <c r="W41" t="n">
-        <v>2137.326608677099</v>
+        <v>1873.281436182494</v>
       </c>
       <c r="X41" t="n">
-        <v>2117.650258831397</v>
+        <v>1625.241924290004</v>
       </c>
       <c r="Y41" t="n">
-        <v>1858.099031993252</v>
+        <v>1365.690697451858</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>930.2860100971772</v>
+        <v>930.2860100971782</v>
       </c>
       <c r="C42" t="n">
-        <v>768.5823373381319</v>
+        <v>768.5823373381329</v>
       </c>
       <c r="D42" t="n">
-        <v>629.7437003283439</v>
+        <v>629.743700328345</v>
       </c>
       <c r="E42" t="n">
-        <v>482.7156903852151</v>
+        <v>482.7156903852162</v>
       </c>
       <c r="F42" t="n">
-        <v>348.0218923350895</v>
+        <v>348.0218923350906</v>
       </c>
       <c r="G42" t="n">
-        <v>219.3023513726286</v>
+        <v>219.3023513726297</v>
       </c>
       <c r="H42" t="n">
         <v>119.4510191359428</v>
@@ -7488,13 +7488,13 @@
         <v>51.37719111503048</v>
       </c>
       <c r="J42" t="n">
-        <v>112.4609240610678</v>
+        <v>112.4609240610681</v>
       </c>
       <c r="K42" t="n">
-        <v>343.369371935536</v>
+        <v>343.3693719355363</v>
       </c>
       <c r="L42" t="n">
-        <v>711.0977523348504</v>
+        <v>711.0977523348506</v>
       </c>
       <c r="M42" t="n">
         <v>1198.355942532095</v>
@@ -7518,22 +7518,22 @@
         <v>2356.99845438182</v>
       </c>
       <c r="T42" t="n">
-        <v>2168.349461662278</v>
+        <v>2168.349461662279</v>
       </c>
       <c r="U42" t="n">
-        <v>1949.855258669421</v>
+        <v>1949.855258669422</v>
       </c>
       <c r="V42" t="n">
-        <v>1721.459636117755</v>
+        <v>1721.459636117756</v>
       </c>
       <c r="W42" t="n">
         <v>1480.143767351065</v>
       </c>
       <c r="X42" t="n">
-        <v>1282.226779228859</v>
+        <v>1282.22677922886</v>
       </c>
       <c r="Y42" t="n">
-        <v>1089.705452878438</v>
+        <v>1089.705452878439</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>212.8155968476124</v>
+        <v>212.8155968476122</v>
       </c>
       <c r="C43" t="n">
-        <v>177.1902558953092</v>
+        <v>177.1902558953091</v>
       </c>
       <c r="D43" t="n">
-        <v>158.1089913090885</v>
+        <v>158.1089913090883</v>
       </c>
       <c r="E43" t="n">
-        <v>140.0906056564239</v>
+        <v>140.0906056564237</v>
       </c>
       <c r="F43" t="n">
-        <v>121.6005792682175</v>
+        <v>121.6005792682174</v>
       </c>
       <c r="G43" t="n">
-        <v>86.67897015868223</v>
+        <v>86.67897015868218</v>
       </c>
       <c r="H43" t="n">
-        <v>61.36373257845482</v>
+        <v>61.36373257845479</v>
       </c>
       <c r="I43" t="n">
         <v>51.37719111503048</v>
@@ -7570,22 +7570,22 @@
         <v>51.37719111503048</v>
       </c>
       <c r="K43" t="n">
-        <v>217.1608627850791</v>
+        <v>85.83664770792434</v>
       </c>
       <c r="L43" t="n">
-        <v>450.1866069294956</v>
+        <v>187.538176775186</v>
       </c>
       <c r="M43" t="n">
-        <v>659.4982187834203</v>
+        <v>438.0098417006297</v>
       </c>
       <c r="N43" t="n">
-        <v>910.3712811283757</v>
+        <v>684.8768765858607</v>
       </c>
       <c r="O43" t="n">
-        <v>1009.875437800325</v>
+        <v>784.38103325781</v>
       </c>
       <c r="P43" t="n">
-        <v>1073.73425773794</v>
+        <v>979.5640682725804</v>
       </c>
       <c r="Q43" t="n">
         <v>1073.73425773794</v>
@@ -7594,25 +7594,25 @@
         <v>1058.540823960287</v>
       </c>
       <c r="S43" t="n">
-        <v>978.9525850905256</v>
+        <v>978.9525850905252</v>
       </c>
       <c r="T43" t="n">
-        <v>879.7963526758679</v>
+        <v>879.7963526758674</v>
       </c>
       <c r="U43" t="n">
-        <v>726.597151438435</v>
+        <v>726.5971514384346</v>
       </c>
       <c r="V43" t="n">
-        <v>599.8524755828741</v>
+        <v>599.8524755828738</v>
       </c>
       <c r="W43" t="n">
-        <v>447.6867026862898</v>
+        <v>447.6867026862894</v>
       </c>
       <c r="X43" t="n">
-        <v>350.4248671676821</v>
+        <v>350.4248671676818</v>
       </c>
       <c r="Y43" t="n">
-        <v>262.3803369459757</v>
+        <v>262.3803369459754</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1559.865087206005</v>
+        <v>1105.637786519856</v>
       </c>
       <c r="C44" t="n">
-        <v>1311.921957124829</v>
+        <v>857.6946564386801</v>
       </c>
       <c r="D44" t="n">
-        <v>1073.088620938069</v>
+        <v>618.8613202519202</v>
       </c>
       <c r="E44" t="n">
-        <v>812.2935296301924</v>
+        <v>530.1969160151207</v>
       </c>
       <c r="F44" t="n">
-        <v>532.1329675263794</v>
+        <v>250.0363539113074</v>
       </c>
       <c r="G44" t="n">
-        <v>250.0363539113073</v>
+        <v>250.0363539113074</v>
       </c>
       <c r="H44" t="n">
         <v>51.37719111503048</v>
@@ -7646,25 +7646,25 @@
         <v>51.37719111503048</v>
       </c>
       <c r="J44" t="n">
-        <v>256.0928248019217</v>
+        <v>170.3123677745404</v>
       </c>
       <c r="K44" t="n">
-        <v>629.6449694894947</v>
+        <v>412.5402973849585</v>
       </c>
       <c r="L44" t="n">
-        <v>980.1201423290786</v>
+        <v>894.3396853016973</v>
       </c>
       <c r="M44" t="n">
-        <v>1376.240959810191</v>
+        <v>1421.784717859965</v>
       </c>
       <c r="N44" t="n">
-        <v>1888.82481293263</v>
+        <v>1803.044355905248</v>
       </c>
       <c r="O44" t="n">
-        <v>2196.594488566589</v>
+        <v>2242.138246616362</v>
       </c>
       <c r="P44" t="n">
-        <v>2427.111326356017</v>
+        <v>2472.655084405791</v>
       </c>
       <c r="Q44" t="n">
         <v>2568.859555751524</v>
@@ -7673,25 +7673,25 @@
         <v>2568.859555751524</v>
       </c>
       <c r="S44" t="n">
-        <v>2568.859555751524</v>
+        <v>2516.002770723276</v>
       </c>
       <c r="T44" t="n">
-        <v>2568.859555751524</v>
+        <v>2425.70775140933</v>
       </c>
       <c r="U44" t="n">
-        <v>2498.988773011065</v>
+        <v>2304.814383256919</v>
       </c>
       <c r="V44" t="n">
-        <v>2296.000127493023</v>
+        <v>2101.825737738877</v>
       </c>
       <c r="W44" t="n">
-        <v>2067.45582593664</v>
+        <v>1873.281436182494</v>
       </c>
       <c r="X44" t="n">
-        <v>1819.41631404415</v>
+        <v>1625.241924290004</v>
       </c>
       <c r="Y44" t="n">
-        <v>1559.865087206005</v>
+        <v>1365.690697451859</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>930.2860100971772</v>
+        <v>930.2860100971782</v>
       </c>
       <c r="C45" t="n">
-        <v>768.5823373381319</v>
+        <v>768.5823373381329</v>
       </c>
       <c r="D45" t="n">
-        <v>629.7437003283439</v>
+        <v>629.743700328345</v>
       </c>
       <c r="E45" t="n">
-        <v>482.7156903852151</v>
+        <v>482.7156903852162</v>
       </c>
       <c r="F45" t="n">
-        <v>348.0218923350895</v>
+        <v>348.0218923350906</v>
       </c>
       <c r="G45" t="n">
-        <v>219.3023513726286</v>
+        <v>219.3023513726297</v>
       </c>
       <c r="H45" t="n">
-        <v>119.4510191359428</v>
+        <v>119.4510191359439</v>
       </c>
       <c r="I45" t="n">
         <v>51.37719111503048</v>
@@ -7749,28 +7749,28 @@
         <v>2568.859555751524</v>
       </c>
       <c r="R45" t="n">
-        <v>2509.631531608693</v>
+        <v>2509.631531608694</v>
       </c>
       <c r="S45" t="n">
         <v>2356.99845438182</v>
       </c>
       <c r="T45" t="n">
-        <v>2168.349461662278</v>
+        <v>2168.349461662279</v>
       </c>
       <c r="U45" t="n">
-        <v>1949.855258669421</v>
+        <v>1949.855258669422</v>
       </c>
       <c r="V45" t="n">
-        <v>1721.459636117755</v>
+        <v>1721.459636117756</v>
       </c>
       <c r="W45" t="n">
         <v>1480.143767351065</v>
       </c>
       <c r="X45" t="n">
-        <v>1282.226779228859</v>
+        <v>1282.22677922886</v>
       </c>
       <c r="Y45" t="n">
-        <v>1089.705452878438</v>
+        <v>1089.705452878439</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>212.8155968476118</v>
+        <v>212.8155968476122</v>
       </c>
       <c r="C46" t="n">
-        <v>177.1902558953087</v>
+        <v>177.1902558953091</v>
       </c>
       <c r="D46" t="n">
-        <v>158.1089913090881</v>
+        <v>158.1089913090883</v>
       </c>
       <c r="E46" t="n">
-        <v>140.0906056564235</v>
+        <v>140.0906056564237</v>
       </c>
       <c r="F46" t="n">
-        <v>121.6005792682172</v>
+        <v>121.6005792682174</v>
       </c>
       <c r="G46" t="n">
-        <v>86.67897015868206</v>
+        <v>86.67897015868218</v>
       </c>
       <c r="H46" t="n">
-        <v>61.36373257845473</v>
+        <v>61.36373257845479</v>
       </c>
       <c r="I46" t="n">
         <v>51.37719111503048</v>
       </c>
       <c r="J46" t="n">
-        <v>124.3597625096811</v>
+        <v>51.37719111503048</v>
       </c>
       <c r="K46" t="n">
-        <v>290.1434341797299</v>
+        <v>217.1608627850792</v>
       </c>
       <c r="L46" t="n">
-        <v>523.1691783241464</v>
+        <v>446.1805794697713</v>
       </c>
       <c r="M46" t="n">
-        <v>773.6408432495903</v>
+        <v>696.652244395215</v>
       </c>
       <c r="N46" t="n">
-        <v>893.1896905173909</v>
+        <v>816.2010916630156</v>
       </c>
       <c r="O46" t="n">
-        <v>992.6938471893402</v>
+        <v>915.7052483349649</v>
       </c>
       <c r="P46" t="n">
-        <v>1073.734257737939</v>
+        <v>979.5640682725804</v>
       </c>
       <c r="Q46" t="n">
-        <v>1073.734257737939</v>
+        <v>1073.73425773794</v>
       </c>
       <c r="R46" t="n">
-        <v>1058.540823960286</v>
+        <v>1058.540823960287</v>
       </c>
       <c r="S46" t="n">
-        <v>978.9525850905243</v>
+        <v>978.9525850905252</v>
       </c>
       <c r="T46" t="n">
-        <v>879.7963526758666</v>
+        <v>879.7963526758674</v>
       </c>
       <c r="U46" t="n">
-        <v>726.5971514384339</v>
+        <v>726.5971514384346</v>
       </c>
       <c r="V46" t="n">
-        <v>599.8524755828731</v>
+        <v>599.8524755828738</v>
       </c>
       <c r="W46" t="n">
-        <v>447.6867026862889</v>
+        <v>447.6867026862894</v>
       </c>
       <c r="X46" t="n">
-        <v>350.4248671676813</v>
+        <v>350.4248671676818</v>
       </c>
       <c r="Y46" t="n">
-        <v>262.380336945975</v>
+        <v>262.3803369459754</v>
       </c>
     </row>
   </sheetData>
@@ -7982,10 +7982,10 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L2" t="n">
-        <v>291.3533787454817</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M2" t="n">
-        <v>584.3675935406823</v>
+        <v>332.7613933705738</v>
       </c>
       <c r="N2" t="n">
         <v>568.5510017355793</v>
@@ -8055,22 +8055,22 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J3" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K3" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L3" t="n">
-        <v>482.0924488944969</v>
+        <v>419.6192629173755</v>
       </c>
       <c r="M3" t="n">
-        <v>577.24370123265</v>
+        <v>577.2437012326488</v>
       </c>
       <c r="N3" t="n">
-        <v>170.7029615888267</v>
+        <v>568.4749397387172</v>
       </c>
       <c r="O3" t="n">
-        <v>512.0210150597484</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P3" t="n">
         <v>414.0015992319183</v>
@@ -8213,16 +8213,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K5" t="n">
-        <v>242.5086384681736</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L5" t="n">
         <v>542.9595789155856</v>
       </c>
       <c r="M5" t="n">
-        <v>584.3675935406823</v>
+        <v>332.7613933705738</v>
       </c>
       <c r="N5" t="n">
         <v>568.5510017355793</v>
@@ -8295,16 +8295,16 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K6" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L6" t="n">
-        <v>482.0924488944969</v>
+        <v>325.8522125280358</v>
       </c>
       <c r="M6" t="n">
-        <v>350.4175877565789</v>
+        <v>577.2437012326488</v>
       </c>
       <c r="N6" t="n">
-        <v>568.4749397387184</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O6" t="n">
         <v>512.0210150597484</v>
@@ -8313,7 +8313,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q6" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R6" t="n">
         <v>59.17817075471706</v>
@@ -8769,7 +8769,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
-        <v>343.804808116352</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L12" t="n">
         <v>482.0924488944969</v>
@@ -9003,7 +9003,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>163.9183459425315</v>
+        <v>163.9183459425317</v>
       </c>
       <c r="K15" t="n">
         <v>343.8048081163522</v>
@@ -9015,7 +9015,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N15" t="n">
-        <v>623.1450866466193</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O15" t="n">
         <v>512.0210150597484</v>
@@ -9252,7 +9252,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
-        <v>623.1450866466196</v>
+        <v>623.1450866466198</v>
       </c>
       <c r="O18" t="n">
         <v>512.0210150597484</v>
@@ -9261,7 +9261,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>273.1004740566033</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9498,7 +9498,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>273.1004740566033</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9714,7 +9714,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>163.9183459425312</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
         <v>343.8048081163522</v>
@@ -9726,7 +9726,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>623.1450866466196</v>
+        <v>623.1450866466198</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
@@ -10425,7 +10425,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>163.9183459425315</v>
+        <v>163.9183459425305</v>
       </c>
       <c r="K33" t="n">
         <v>343.8048081163522</v>
@@ -10437,7 +10437,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>623.1450866466187</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O33" t="n">
         <v>512.0210150597484</v>
@@ -10911,10 +10911,10 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>623.1450866466193</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O39" t="n">
-        <v>512.0210150597484</v>
+        <v>512.0210150597485</v>
       </c>
       <c r="P39" t="n">
         <v>414.0015992319183</v>
@@ -11136,7 +11136,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>163.9183459425312</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K42" t="n">
         <v>343.8048081163522</v>
@@ -11151,7 +11151,7 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O42" t="n">
-        <v>512.0210150597484</v>
+        <v>512.0210150597485</v>
       </c>
       <c r="P42" t="n">
         <v>414.0015992319183</v>
@@ -23264,16 +23264,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>277.7440190081405</v>
+        <v>265.775454522199</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>15.45440932933423</v>
+        <v>298.8325260922642</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>216.2294497816569</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>71.88509579130809</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>139.2413130842301</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>276.5125931831067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>277.0092604360253</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>88.07426369275842</v>
+        <v>265.020577393707</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>57.35610213003364</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>139.2413130842301</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23558,10 +23558,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>265.1159953869079</v>
       </c>
       <c r="Y14" t="n">
-        <v>276.5125931831067</v>
+        <v>193.3447554854715</v>
       </c>
     </row>
     <row r="15">
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>-8.748200415893317e-13</v>
       </c>
     </row>
     <row r="18">
@@ -23987,7 +23987,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-4.565237077258644e-13</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24692,10 +24692,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.682785855106061e-13</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1.660112047829898e-12</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -25637,16 +25637,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>170.409380200366</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>279.2756474789214</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>37.79922351669097</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,13 +25676,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>52.32821717796541</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>89.3920691208067</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>119.6844344708875</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25691,7 +25691,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>226.0795304263203</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>257.4523818226825</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25871,19 +25871,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>170.4093802003662</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>279.2756474789214</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>37.79922351669091</v>
+        <v>37.79922351669097</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,13 +25913,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>52.32821717796546</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>89.39206912080661</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>50.51235955783302</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>607026.8702813754</v>
+        <v>607026.8702813752</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>607026.8702813754</v>
+        <v>607026.8702813752</v>
       </c>
     </row>
     <row r="4">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>767624.060494182</v>
+        <v>767624.0604941824</v>
       </c>
       <c r="C2" t="n">
-        <v>767624.060494182</v>
+        <v>767624.0604941823</v>
       </c>
       <c r="D2" t="n">
-        <v>767624.0604941822</v>
+        <v>767624.0604941824</v>
       </c>
       <c r="E2" t="n">
         <v>705469.4010346488</v>
       </c>
       <c r="F2" t="n">
-        <v>705469.4010346485</v>
+        <v>705469.4010346486</v>
       </c>
       <c r="G2" t="n">
-        <v>767624.0604941807</v>
+        <v>767624.0604941808</v>
       </c>
       <c r="H2" t="n">
+        <v>767624.060494181</v>
+      </c>
+      <c r="I2" t="n">
+        <v>767624.0604941812</v>
+      </c>
+      <c r="J2" t="n">
+        <v>767624.0604941801</v>
+      </c>
+      <c r="K2" t="n">
+        <v>767624.0604941797</v>
+      </c>
+      <c r="L2" t="n">
+        <v>767624.0604941826</v>
+      </c>
+      <c r="M2" t="n">
         <v>767624.0604941809</v>
       </c>
-      <c r="I2" t="n">
-        <v>767624.0604941809</v>
-      </c>
-      <c r="J2" t="n">
-        <v>767624.0604941803</v>
-      </c>
-      <c r="K2" t="n">
-        <v>767624.06049418</v>
-      </c>
-      <c r="L2" t="n">
-        <v>767624.060494183</v>
-      </c>
-      <c r="M2" t="n">
-        <v>767624.0604941808</v>
-      </c>
       <c r="N2" t="n">
-        <v>767624.0604941809</v>
+        <v>767624.060494181</v>
       </c>
       <c r="O2" t="n">
-        <v>728820.3140989826</v>
+        <v>728820.3140989825</v>
       </c>
       <c r="P2" t="n">
-        <v>728820.3140989826</v>
+        <v>728820.3140989824</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>154746.3290100249</v>
+        <v>154746.3290100246</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>19738.48714776809</v>
+        <v>19738.48714776842</v>
       </c>
       <c r="E3" t="n">
-        <v>128695.1684701463</v>
+        <v>128695.1684701464</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>41644.66295445975</v>
+        <v>41644.66295445972</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>219583.1469707433</v>
+        <v>219583.146970743</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>54796.62224975143</v>
+        <v>54796.6222497516</v>
       </c>
       <c r="M3" t="n">
-        <v>25413.53082723084</v>
+        <v>25413.53082723096</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>33084.25985937139</v>
+        <v>33084.25985937142</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>234210.1287860095</v>
+        <v>234210.1287860097</v>
       </c>
       <c r="C4" t="n">
-        <v>234210.1287860095</v>
+        <v>234210.1287860097</v>
       </c>
       <c r="D4" t="n">
         <v>219386.7809755888</v>
@@ -26427,7 +26427,7 @@
         <v>174007.3099199998</v>
       </c>
       <c r="F4" t="n">
-        <v>174007.3099199998</v>
+        <v>174007.3099199999</v>
       </c>
       <c r="G4" t="n">
         <v>209249.2231236644</v>
@@ -26457,7 +26457,7 @@
         <v>187236.718121596</v>
       </c>
       <c r="P4" t="n">
-        <v>187236.7181215961</v>
+        <v>187236.718121596</v>
       </c>
     </row>
     <row r="5">
@@ -26467,28 +26467,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61702.59575919741</v>
+        <v>61702.59575919734</v>
       </c>
       <c r="C5" t="n">
-        <v>61702.59575919741</v>
+        <v>61702.59575919734</v>
       </c>
       <c r="D5" t="n">
         <v>65566.03463691141</v>
       </c>
       <c r="E5" t="n">
-        <v>48644.24398372455</v>
+        <v>48644.24398372456</v>
       </c>
       <c r="F5" t="n">
-        <v>48644.24398372455</v>
+        <v>48644.24398372456</v>
       </c>
       <c r="G5" t="n">
-        <v>53020.52544612265</v>
+        <v>53020.52544612266</v>
       </c>
       <c r="H5" t="n">
-        <v>53020.52544612265</v>
+        <v>53020.52544612266</v>
       </c>
       <c r="I5" t="n">
-        <v>53020.52544612265</v>
+        <v>53020.52544612266</v>
       </c>
       <c r="J5" t="n">
         <v>58943.11413656328</v>
@@ -26497,16 +26497,16 @@
         <v>58943.11413656327</v>
       </c>
       <c r="L5" t="n">
-        <v>56461.76534134412</v>
+        <v>56461.76534134407</v>
       </c>
       <c r="M5" t="n">
-        <v>53020.52544612265</v>
+        <v>53020.52544612266</v>
       </c>
       <c r="N5" t="n">
-        <v>53020.52544612264</v>
+        <v>53020.52544612266</v>
       </c>
       <c r="O5" t="n">
-        <v>50288.37121186966</v>
+        <v>50288.37121186967</v>
       </c>
       <c r="P5" t="n">
         <v>50288.37121186967</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>316965.0069389502</v>
+        <v>316965.0069389507</v>
       </c>
       <c r="C6" t="n">
-        <v>471711.3359489751</v>
+        <v>471711.3359489752</v>
       </c>
       <c r="D6" t="n">
         <v>462932.7577339139</v>
       </c>
       <c r="E6" t="n">
-        <v>354122.678660778</v>
+        <v>353967.2920121292</v>
       </c>
       <c r="F6" t="n">
-        <v>482817.8471309242</v>
+        <v>482662.4604822753</v>
       </c>
       <c r="G6" t="n">
-        <v>463709.6489699338</v>
+        <v>463709.648969934</v>
       </c>
       <c r="H6" t="n">
-        <v>505354.3119243939</v>
+        <v>505354.311924394</v>
       </c>
       <c r="I6" t="n">
-        <v>505354.3119243939</v>
+        <v>505354.3119243942</v>
       </c>
       <c r="J6" t="n">
         <v>279064.5544532098</v>
       </c>
       <c r="K6" t="n">
-        <v>498647.7014239527</v>
+        <v>498647.7014239526</v>
       </c>
       <c r="L6" t="n">
-        <v>446672.7730238002</v>
+        <v>446672.7730237998</v>
       </c>
       <c r="M6" t="n">
         <v>479940.7810971629</v>
       </c>
       <c r="N6" t="n">
-        <v>505354.3119243939</v>
+        <v>505354.311924394</v>
       </c>
       <c r="O6" t="n">
-        <v>458210.9649061456</v>
+        <v>458113.9555401573</v>
       </c>
       <c r="P6" t="n">
-        <v>491295.2247655168</v>
+        <v>491198.2153995287</v>
       </c>
     </row>
   </sheetData>
@@ -26701,10 +26701,10 @@
         <v>165.1496723798884</v>
       </c>
       <c r="H2" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="I2" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="J2" t="n">
         <v>125.9101035970209</v>
@@ -26713,7 +26713,7 @@
         <v>125.9101035970208</v>
       </c>
       <c r="L2" t="n">
-        <v>142.3500527161355</v>
+        <v>142.3500527161357</v>
       </c>
       <c r="M2" t="n">
         <v>165.1496723798883</v>
@@ -26787,49 +26787,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.7597986710101</v>
+        <v>461.759798671009</v>
       </c>
       <c r="C4" t="n">
-        <v>461.7597986710101</v>
+        <v>461.759798671009</v>
       </c>
       <c r="D4" t="n">
         <v>525.3032012649903</v>
       </c>
       <c r="E4" t="n">
-        <v>642.2148889378809</v>
+        <v>642.214888937881</v>
       </c>
       <c r="F4" t="n">
-        <v>642.2148889378809</v>
+        <v>642.214888937881</v>
       </c>
       <c r="G4" t="n">
-        <v>642.2148889378809</v>
+        <v>642.214888937881</v>
       </c>
       <c r="H4" t="n">
-        <v>642.2148889378809</v>
+        <v>642.214888937881</v>
       </c>
       <c r="I4" t="n">
-        <v>642.2148889378809</v>
+        <v>642.214888937881</v>
       </c>
       <c r="J4" t="n">
-        <v>793.8829810176098</v>
+        <v>793.8829810176099</v>
       </c>
       <c r="K4" t="n">
         <v>793.8829810176098</v>
       </c>
       <c r="L4" t="n">
-        <v>730.3395784236295</v>
+        <v>730.3395784236285</v>
       </c>
       <c r="M4" t="n">
         <v>642.214888937881</v>
       </c>
       <c r="N4" t="n">
-        <v>642.2148889378809</v>
+        <v>642.214888937881</v>
       </c>
       <c r="O4" t="n">
-        <v>642.2148889378809</v>
+        <v>642.214888937881</v>
       </c>
       <c r="P4" t="n">
-        <v>642.2148889378809</v>
+        <v>642.214888937881</v>
       </c>
     </row>
   </sheetData>
@@ -26917,10 +26917,10 @@
         <v>113.0938436868137</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>52.05582869307469</v>
+        <v>52.05582869307464</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.85427490394621</v>
+        <v>73.85427490394622</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>68.49577781218929</v>
+        <v>68.4957778121895</v>
       </c>
       <c r="M2" t="n">
-        <v>22.79961966375285</v>
+        <v>22.79961966375265</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>41.35532482421424</v>
+        <v>41.35532482421428</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.7597986710101</v>
+        <v>461.759798671009</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>63.54340259398028</v>
+        <v>63.54340259398134</v>
       </c>
       <c r="E4" t="n">
-        <v>116.9116876728906</v>
+        <v>116.9116876728907</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>613.4278907507389</v>
+        <v>613.4278907507379</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>28.7869981871421</v>
+        <v>28.78699818714324</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>113.0938436868137</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>52.05582869307469</v>
+        <v>52.05582869307464</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>73.85427490394621</v>
+        <v>73.85427490394622</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.7597986710101</v>
+        <v>461.759798671009</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>63.54340259398028</v>
+        <v>63.54340259398134</v>
       </c>
       <c r="M4" t="n">
-        <v>116.9116876728906</v>
+        <v>116.9116876728907</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
-        <v>272.8250738495284</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>378.2098390737216</v>
+        <v>50.22452904304799</v>
       </c>
       <c r="Y2" t="n">
         <v>389.6064368699203</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27464,7 +27464,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27521,10 +27521,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>195.9378182409833</v>
+        <v>139.7842241669292</v>
       </c>
       <c r="Y3" t="n">
-        <v>108.2677885377784</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="4">
@@ -27546,19 +27546,19 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G4" t="n">
         <v>167.2305511458285</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,28 +27579,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>148.0265635717656</v>
       </c>
       <c r="S4" t="n">
-        <v>195.786459523193</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
-        <v>230.8471636524779</v>
+        <v>229.3283696525924</v>
       </c>
       <c r="U4" t="n">
         <v>284.3183371157911</v>
       </c>
       <c r="V4" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X4" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>219.8148072196457</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
         <v>378.1144210805207</v>
@@ -27628,10 +27628,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>133.5936108668773</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>185.3566856159496</v>
@@ -27670,16 +27670,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>378.2098390737216</v>
+        <v>93.18525156232619</v>
       </c>
       <c r="Y5" t="n">
         <v>389.6064368699203</v>
@@ -27695,10 +27695,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>66.81424164536197</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27713,7 +27713,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,10 +27740,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27752,7 +27752,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>61.50503640849644</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>238.9027100790231</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C7" t="n">
         <v>167.9198098429365</v>
@@ -27780,7 +27780,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F7" t="n">
         <v>150.9558484244806</v>
@@ -27819,13 +27819,13 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
-        <v>148.0265635717656</v>
+        <v>135.4299118985452</v>
       </c>
       <c r="S7" t="n">
         <v>211.5726649703493</v>
       </c>
       <c r="T7" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>284.3183371157911</v>
@@ -27834,10 +27834,10 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W7" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>34.41002576393529</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y7" t="n">
         <v>219.8148072196457</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>378.1144210805207</v>
@@ -27862,16 +27862,16 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27907,19 +27907,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>33.47847944056645</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>378.2098390737216</v>
+        <v>237.1500269824789</v>
       </c>
       <c r="Y8" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27944,13 +27944,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>28.09477831004479</v>
+        <v>49.32288970647717</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,22 +27977,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.9198098429365</v>
@@ -28053,28 +28053,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>148.0265635717656</v>
       </c>
       <c r="S10" t="n">
-        <v>211.5726649703493</v>
+        <v>189.0241322230513</v>
       </c>
       <c r="T10" t="n">
         <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>243.6240755350413</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y10" t="n">
         <v>219.8148072196457</v>
@@ -28111,19 +28111,19 @@
         <v>113.0938436868137</v>
       </c>
       <c r="J11" t="n">
-        <v>113.0938436868137</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>113.0938436868137</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>113.0938436868137</v>
       </c>
       <c r="M11" t="n">
-        <v>80.27119302741016</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>80.27119302741085</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -28132,7 +28132,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="R11" t="n">
         <v>113.0938436868137</v>
@@ -28181,13 +28181,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>-6.110667527536862e-13</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>-1.06581410364015e-12</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28348,10 +28348,10 @@
         <v>113.0938436868137</v>
       </c>
       <c r="J14" t="n">
-        <v>80.27119302741058</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>113.0938436868137</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -28363,13 +28363,13 @@
         <v>113.0938436868137</v>
       </c>
       <c r="O14" t="n">
-        <v>113.0938436868137</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>113.0938436868137</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>80.27119302741086</v>
       </c>
       <c r="R14" t="n">
         <v>113.0938436868137</v>
@@ -28424,7 +28424,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>-1.06581410364015e-12</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28457,7 +28457,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>-5.968558980384842e-13</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -28588,28 +28588,28 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>37.19755063500034</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
+        <v>113.6566181505651</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
         <v>165.1496723798884</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>165.1496723798884</v>
       </c>
       <c r="R17" t="n">
-        <v>165.1496723798884</v>
+        <v>88.69060486432404</v>
       </c>
       <c r="S17" t="n">
         <v>165.1496723798884</v>
@@ -28655,13 +28655,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>-1.06581410364015e-12</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28725,22 +28725,22 @@
         <v>165.1496723798884</v>
       </c>
       <c r="D19" t="n">
+        <v>151.5411742405149</v>
+      </c>
+      <c r="E19" t="n">
+        <v>150.4889240962943</v>
+      </c>
+      <c r="F19" t="n">
         <v>165.1496723798884</v>
-      </c>
-      <c r="E19" t="n">
-        <v>165.1496723798884</v>
-      </c>
-      <c r="F19" t="n">
-        <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
         <v>165.1496723798884</v>
       </c>
       <c r="H19" t="n">
-        <v>157.7128075045815</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="I19" t="n">
-        <v>142.5373983489465</v>
+        <v>153.7317788390911</v>
       </c>
       <c r="J19" t="n">
         <v>58.93095321465074</v>
@@ -28758,7 +28758,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>22.01327353774712</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -28767,7 +28767,7 @@
         <v>37.52931879979314</v>
       </c>
       <c r="R19" t="n">
-        <v>147.692221740033</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="S19" t="n">
         <v>165.1496723798884</v>
@@ -28798,34 +28798,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="C20" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="D20" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="E20" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="F20" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="G20" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="H20" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="I20" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="J20" t="n">
-        <v>165.1496723798884</v>
+        <v>113.6566181505648</v>
       </c>
       <c r="K20" t="n">
-        <v>165.1496723798884</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -28834,40 +28834,40 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="Q20" t="n">
-        <v>37.19755063500027</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>165.1496723798884</v>
+        <v>88.69060486432404</v>
       </c>
       <c r="S20" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="T20" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="U20" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="V20" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="W20" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="X20" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="Y20" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
     </row>
     <row r="21">
@@ -28898,7 +28898,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>-1.06581410364015e-12</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,7 +28925,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>-4.476419235288631e-13</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -28956,10 +28956,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="C22" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="D22" t="n">
         <v>151.5411742405149</v>
@@ -28968,10 +28968,10 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F22" t="n">
-        <v>150.9558484244806</v>
+        <v>153.071390653547</v>
       </c>
       <c r="G22" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="H22" t="n">
         <v>157.7128075045815</v>
@@ -29001,31 +29001,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.3543881206524</v>
+        <v>85.6962965314417</v>
       </c>
       <c r="R22" t="n">
-        <v>165.1496723798884</v>
+        <v>147.692221740033</v>
       </c>
       <c r="S22" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="T22" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="U22" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="V22" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="W22" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="X22" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="Y22" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
     </row>
     <row r="23">
@@ -29035,37 +29035,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="C23" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="D23" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="E23" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="F23" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="G23" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="H23" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="I23" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="J23" t="n">
-        <v>165.1496723798884</v>
+        <v>113.6566181505643</v>
       </c>
       <c r="K23" t="n">
-        <v>165.1496723798884</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -29074,37 +29074,37 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>37.19755063499933</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>165.1496723798884</v>
+        <v>88.69060486432404</v>
       </c>
       <c r="S23" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="T23" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="U23" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="V23" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="W23" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="X23" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="Y23" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
     </row>
     <row r="24">
@@ -29135,7 +29135,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>-1.06581410364015e-12</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29193,25 +29193,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="C25" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="D25" t="n">
-        <v>165.1496723798884</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E25" t="n">
-        <v>165.1496723798884</v>
+        <v>152.6044663253607</v>
       </c>
       <c r="F25" t="n">
-        <v>155.5116713223724</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="H25" t="n">
-        <v>157.7128075045815</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="I25" t="n">
         <v>142.5373983489465</v>
@@ -29235,34 +29235,34 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>23.27266221648637</v>
       </c>
       <c r="Q25" t="n">
         <v>37.52931879979314</v>
       </c>
       <c r="R25" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="S25" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="T25" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="U25" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="V25" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="W25" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="X25" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="Y25" t="n">
-        <v>165.1496723798884</v>
+        <v>165.1496723798883</v>
       </c>
     </row>
     <row r="26">
@@ -29372,7 +29372,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>-1.037392394209746e-12</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29399,7 +29399,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>-8.952838470577262e-13</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -29454,28 +29454,28 @@
         <v>125.9101035970209</v>
       </c>
       <c r="J28" t="n">
-        <v>65.97652110912365</v>
+        <v>58.93095321465074</v>
       </c>
       <c r="K28" t="n">
         <v>125.9101035970209</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>125.9101035970209</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>125.9101035970209</v>
       </c>
       <c r="N28" t="n">
-        <v>125.9101035970209</v>
+        <v>95.4263526917008</v>
       </c>
       <c r="O28" t="n">
         <v>125.9101035970209</v>
       </c>
       <c r="P28" t="n">
-        <v>125.9101035970209</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.9101035970209</v>
+        <v>37.52931879979314</v>
       </c>
       <c r="R28" t="n">
         <v>125.9101035970209</v>
@@ -29694,22 +29694,22 @@
         <v>125.9101035970208</v>
       </c>
       <c r="K31" t="n">
-        <v>125.9101035970208</v>
+        <v>65.97652110912531</v>
       </c>
       <c r="L31" t="n">
         <v>125.9101035970208</v>
       </c>
       <c r="M31" t="n">
-        <v>65.97652110912423</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
         <v>125.9101035970208</v>
       </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>125.9101035970208</v>
       </c>
       <c r="Q31" t="n">
         <v>125.9101035970208</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>142.3500527161355</v>
+        <v>142.3500527161357</v>
       </c>
       <c r="C32" t="n">
-        <v>142.3500527161355</v>
+        <v>142.3500527161357</v>
       </c>
       <c r="D32" t="n">
-        <v>142.3500527161355</v>
+        <v>142.3500527161357</v>
       </c>
       <c r="E32" t="n">
-        <v>142.3500527161355</v>
+        <v>142.3500527161357</v>
       </c>
       <c r="F32" t="n">
-        <v>142.3500527161355</v>
+        <v>142.3500527161357</v>
       </c>
       <c r="G32" t="n">
-        <v>142.3500527161355</v>
+        <v>142.3500527161357</v>
       </c>
       <c r="H32" t="n">
-        <v>142.3500527161355</v>
+        <v>142.3500527161357</v>
       </c>
       <c r="I32" t="n">
-        <v>142.3500527161355</v>
+        <v>142.3500527161357</v>
       </c>
       <c r="J32" t="n">
-        <v>142.3500527161355</v>
+        <v>142.3500527161357</v>
       </c>
       <c r="K32" t="n">
-        <v>142.3500527161355</v>
+        <v>142.3500527161357</v>
       </c>
       <c r="L32" t="n">
-        <v>142.3500527161355</v>
+        <v>81.14386375807771</v>
       </c>
       <c r="M32" t="n">
-        <v>81.14386375808243</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>142.3500527161355</v>
+        <v>142.3500527161357</v>
       </c>
       <c r="O32" t="n">
-        <v>142.3500527161355</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>142.3500527161357</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>142.3500527161357</v>
       </c>
       <c r="R32" t="n">
         <v>88.69060486432404</v>
       </c>
       <c r="S32" t="n">
-        <v>142.3500527161355</v>
+        <v>142.3500527161357</v>
       </c>
       <c r="T32" t="n">
-        <v>142.3500527161355</v>
+        <v>142.3500527161357</v>
       </c>
       <c r="U32" t="n">
-        <v>142.3500527161355</v>
+        <v>142.3500527161357</v>
       </c>
       <c r="V32" t="n">
-        <v>142.3500527161355</v>
+        <v>142.3500527161357</v>
       </c>
       <c r="W32" t="n">
-        <v>142.3500527161355</v>
+        <v>142.3500527161357</v>
       </c>
       <c r="X32" t="n">
-        <v>142.3500527161355</v>
+        <v>142.3500527161357</v>
       </c>
       <c r="Y32" t="n">
-        <v>142.3500527161355</v>
+        <v>142.3500527161357</v>
       </c>
     </row>
     <row r="33">
@@ -29904,37 +29904,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>142.3500527161355</v>
+        <v>142.3500527161357</v>
       </c>
       <c r="C34" t="n">
-        <v>142.3500527161355</v>
+        <v>142.3500527161357</v>
       </c>
       <c r="D34" t="n">
-        <v>142.3500527161355</v>
+        <v>142.3500527161357</v>
       </c>
       <c r="E34" t="n">
-        <v>142.3500527161355</v>
+        <v>142.3500527161357</v>
       </c>
       <c r="F34" t="n">
-        <v>142.3500527161355</v>
+        <v>142.3500527161357</v>
       </c>
       <c r="G34" t="n">
-        <v>142.3500527161355</v>
+        <v>142.3500527161357</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3500527161355</v>
+        <v>142.3500527161357</v>
       </c>
       <c r="I34" t="n">
-        <v>142.3500527161355</v>
+        <v>142.3500527161357</v>
       </c>
       <c r="J34" t="n">
-        <v>142.3500527161355</v>
+        <v>58.93095321465074</v>
       </c>
       <c r="K34" t="n">
-        <v>142.3500527161355</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>104.9176680140538</v>
+        <v>142.3500527161357</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -29946,34 +29946,34 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>83.5160335991921</v>
       </c>
       <c r="Q34" t="n">
-        <v>37.52931879979314</v>
+        <v>142.3500527161357</v>
       </c>
       <c r="R34" t="n">
-        <v>142.3500527161355</v>
+        <v>142.3500527161357</v>
       </c>
       <c r="S34" t="n">
-        <v>142.3500527161355</v>
+        <v>142.3500527161357</v>
       </c>
       <c r="T34" t="n">
-        <v>142.3500527161355</v>
+        <v>142.3500527161357</v>
       </c>
       <c r="U34" t="n">
-        <v>142.3500527161355</v>
+        <v>142.3500527161357</v>
       </c>
       <c r="V34" t="n">
-        <v>142.3500527161355</v>
+        <v>142.3500527161357</v>
       </c>
       <c r="W34" t="n">
-        <v>142.3500527161355</v>
+        <v>142.3500527161357</v>
       </c>
       <c r="X34" t="n">
-        <v>142.3500527161355</v>
+        <v>142.3500527161357</v>
       </c>
       <c r="Y34" t="n">
-        <v>142.3500527161355</v>
+        <v>142.3500527161357</v>
       </c>
     </row>
     <row r="35">
@@ -30010,11 +30010,11 @@
         <v>165.1496723798883</v>
       </c>
       <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
         <v>165.1496723798883</v>
       </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
@@ -30025,10 +30025,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>37.1975506350006</v>
       </c>
       <c r="Q35" t="n">
-        <v>37.19755063500072</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>165.1496723798883</v>
@@ -30071,13 +30071,13 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>-1.06581410364015e-12</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -30174,13 +30174,13 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>50.28251996071492</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>50.28251996071536</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -30244,31 +30244,31 @@
         <v>165.1496723798883</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>37.19755063500031</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
         <v>165.1496723798883</v>
       </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>165.1496723798883</v>
+        <v>113.6566181505646</v>
       </c>
       <c r="R38" t="n">
-        <v>165.1496723798883</v>
+        <v>88.69060486432404</v>
       </c>
       <c r="S38" t="n">
         <v>165.1496723798883</v>
@@ -30317,10 +30317,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>-6.110667527536862e-13</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>-1.06581410364015e-12</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30384,13 +30384,13 @@
         <v>165.1496723798883</v>
       </c>
       <c r="D40" t="n">
-        <v>165.1496723798883</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
-        <v>165.1496723798883</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
-        <v>155.5116713223728</v>
+        <v>153.071390653547</v>
       </c>
       <c r="G40" t="n">
         <v>165.1496723798883</v>
@@ -30420,13 +30420,13 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>48.16697773164857</v>
       </c>
       <c r="Q40" t="n">
         <v>37.52931879979314</v>
       </c>
       <c r="R40" t="n">
-        <v>165.1496723798883</v>
+        <v>147.692221740033</v>
       </c>
       <c r="S40" t="n">
         <v>165.1496723798883</v>
@@ -30481,16 +30481,16 @@
         <v>132.6507223001564</v>
       </c>
       <c r="J41" t="n">
-        <v>132.6507223001564</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>46.00379600987247</v>
       </c>
       <c r="M41" t="n">
-        <v>2.043678574039802</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>132.6507223001564</v>
@@ -30502,10 +30502,10 @@
         <v>132.6507223001564</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>132.6507223001564</v>
       </c>
       <c r="R41" t="n">
-        <v>132.6507223001564</v>
+        <v>88.69060486432404</v>
       </c>
       <c r="S41" t="n">
         <v>132.6507223001564</v>
@@ -30642,25 +30642,25 @@
         <v>58.93095321465074</v>
       </c>
       <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
         <v>132.6507223001564</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
+        <v>128.6042299165963</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
         <v>132.6507223001564</v>
       </c>
-      <c r="M43" t="n">
-        <v>91.07491111680378</v>
-      </c>
-      <c r="N43" t="n">
+      <c r="Q43" t="n">
         <v>132.6507223001564</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>37.52931879979314</v>
       </c>
       <c r="R43" t="n">
         <v>132.6507223001564</v>
@@ -30718,28 +30718,28 @@
         <v>132.6507223001564</v>
       </c>
       <c r="J44" t="n">
+        <v>46.00379600987236</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
         <v>132.6507223001564</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>132.6507223001564</v>
       </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
       <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
         <v>132.6507223001564</v>
       </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>46.00379600987209</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>88.69060486432404</v>
@@ -30876,13 +30876,13 @@
         <v>132.6507223001564</v>
       </c>
       <c r="J46" t="n">
-        <v>132.6507223001564</v>
+        <v>58.93095321465074</v>
       </c>
       <c r="K46" t="n">
         <v>132.6507223001564</v>
       </c>
       <c r="L46" t="n">
-        <v>132.6507223001564</v>
+        <v>128.6042299165964</v>
       </c>
       <c r="M46" t="n">
         <v>132.6507223001564</v>
@@ -30894,10 +30894,10 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>17.35514203129642</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>37.52931879979314</v>
+        <v>132.6507223001564</v>
       </c>
       <c r="R46" t="n">
         <v>132.6507223001564</v>
@@ -34702,10 +34702,10 @@
         <v>242.5660323684674</v>
       </c>
       <c r="L2" t="n">
-        <v>99.79316658236706</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M2" t="n">
-        <v>397.2112790435232</v>
+        <v>145.6050788734148</v>
       </c>
       <c r="N2" t="n">
         <v>382.1528875633492</v>
@@ -34775,22 +34775,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K3" t="n">
         <v>231.8086389496855</v>
       </c>
       <c r="L3" t="n">
-        <v>369.5170153233491</v>
+        <v>307.0438293462278</v>
       </c>
       <c r="M3" t="n">
-        <v>461.7597986710101</v>
+        <v>461.759798671009</v>
       </c>
       <c r="N3" t="n">
-        <v>63.98782052111836</v>
+        <v>461.759798671009</v>
       </c>
       <c r="O3" t="n">
-        <v>396.1615664486372</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>305.147393207775</v>
@@ -34933,16 +34933,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K5" t="n">
-        <v>63.68563449412686</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L5" t="n">
         <v>351.3993667524709</v>
       </c>
       <c r="M5" t="n">
-        <v>397.2112790435232</v>
+        <v>145.6050788734148</v>
       </c>
       <c r="N5" t="n">
         <v>382.1528875633492</v>
@@ -35015,16 +35015,16 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L6" t="n">
-        <v>369.5170153233491</v>
+        <v>213.276778956888</v>
       </c>
       <c r="M6" t="n">
-        <v>234.933685194939</v>
+        <v>461.759798671009</v>
       </c>
       <c r="N6" t="n">
-        <v>461.7597986710101</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>396.1615664486372</v>
@@ -35033,7 +35033,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35407,19 +35407,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>187.2265897572544</v>
+        <v>74.13274607044072</v>
       </c>
       <c r="K11" t="n">
-        <v>357.7685200609734</v>
+        <v>244.6746763741597</v>
       </c>
       <c r="L11" t="n">
         <v>467.1091697874035</v>
       </c>
       <c r="M11" t="n">
-        <v>480.3932308871201</v>
+        <v>513.2158815465236</v>
       </c>
       <c r="N11" t="n">
-        <v>385.1107455002865</v>
+        <v>465.3819385276973</v>
       </c>
       <c r="O11" t="n">
         <v>310.8784602363221</v>
@@ -35428,10 +35428,10 @@
         <v>232.8452906963923</v>
       </c>
       <c r="Q11" t="n">
-        <v>97.17623368255899</v>
+        <v>210.2700773693727</v>
       </c>
       <c r="R11" t="n">
-        <v>24.40323882248964</v>
+        <v>24.40323882248963</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>61.70074034953289</v>
       </c>
       <c r="K12" t="n">
-        <v>233.2408564388566</v>
+        <v>233.2408564388568</v>
       </c>
       <c r="L12" t="n">
         <v>371.4428084841559</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>54.16289047216295</v>
+        <v>54.16289047216294</v>
       </c>
       <c r="K13" t="n">
         <v>147.9013755988277</v>
       </c>
       <c r="L13" t="n">
-        <v>215.822660926472</v>
+        <v>215.8226609264719</v>
       </c>
       <c r="M13" t="n">
         <v>233.4448031295298</v>
@@ -35586,7 +35586,7 @@
         <v>177.5977022096575</v>
       </c>
       <c r="Q13" t="n">
-        <v>75.56452488702055</v>
+        <v>75.56452488702053</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,10 +35644,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>154.4039390978513</v>
+        <v>187.2265897572545</v>
       </c>
       <c r="K14" t="n">
-        <v>244.6746763741597</v>
+        <v>357.7685200609734</v>
       </c>
       <c r="L14" t="n">
         <v>354.0153261005898</v>
@@ -35659,16 +35659,16 @@
         <v>498.2045891871002</v>
       </c>
       <c r="O14" t="n">
-        <v>423.9723039231358</v>
+        <v>310.8784602363221</v>
       </c>
       <c r="P14" t="n">
-        <v>345.939134383206</v>
+        <v>232.8452906963923</v>
       </c>
       <c r="Q14" t="n">
-        <v>97.17623368255899</v>
+        <v>177.4474267099698</v>
       </c>
       <c r="R14" t="n">
-        <v>24.40323882248963</v>
+        <v>24.40323882248967</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>61.70074034953289</v>
+        <v>61.7007403495331</v>
       </c>
       <c r="K15" t="n">
         <v>233.2408564388568</v>
@@ -35735,7 +35735,7 @@
         <v>492.1799900982264</v>
       </c>
       <c r="N15" t="n">
-        <v>518.7367349667038</v>
+        <v>518.736734966704</v>
       </c>
       <c r="O15" t="n">
         <v>398.2718280705802</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>54.16289047216294</v>
+        <v>54.16289047216298</v>
       </c>
       <c r="K16" t="n">
         <v>147.9013755988277</v>
       </c>
       <c r="L16" t="n">
-        <v>215.8226609264719</v>
+        <v>215.822660926472</v>
       </c>
       <c r="M16" t="n">
         <v>233.4448031295298</v>
       </c>
       <c r="N16" t="n">
-        <v>233.8502550684305</v>
+        <v>233.8502550684306</v>
       </c>
       <c r="O16" t="n">
-        <v>213.6030928503988</v>
+        <v>213.6030928503989</v>
       </c>
       <c r="P16" t="n">
-        <v>177.5977022096575</v>
+        <v>177.5977022096576</v>
       </c>
       <c r="Q16" t="n">
-        <v>75.56452488702054</v>
+        <v>75.56452488702058</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>74.13274607044072</v>
       </c>
       <c r="K17" t="n">
-        <v>281.87222700916</v>
+        <v>244.6746763741597</v>
       </c>
       <c r="L17" t="n">
         <v>354.0153261005898</v>
       </c>
       <c r="M17" t="n">
-        <v>565.2717102395983</v>
+        <v>513.778656010275</v>
       </c>
       <c r="N17" t="n">
         <v>385.1107455002865</v>
@@ -35899,13 +35899,13 @@
         <v>310.8784602363221</v>
       </c>
       <c r="P17" t="n">
-        <v>232.8452906963923</v>
+        <v>397.9949630762807</v>
       </c>
       <c r="Q17" t="n">
         <v>262.3259060624474</v>
       </c>
       <c r="R17" t="n">
-        <v>76.45906751556431</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35972,7 +35972,7 @@
         <v>492.1799900982264</v>
       </c>
       <c r="N18" t="n">
-        <v>518.736734966704</v>
+        <v>518.7367349667043</v>
       </c>
       <c r="O18" t="n">
         <v>398.2718280705802</v>
@@ -35981,7 +35981,7 @@
         <v>306.8410642033352</v>
       </c>
       <c r="Q18" t="n">
-        <v>160.4974568194095</v>
+        <v>160.49745681941</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36021,22 +36021,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>13.60849813937347</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>14.66074828359402</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>14.19382395540771</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>7.436864875306865</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>11.19438049014466</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -36054,7 +36054,7 @@
         <v>120.7564113816168</v>
       </c>
       <c r="O19" t="n">
-        <v>122.5225227013323</v>
+        <v>100.5092491635852</v>
       </c>
       <c r="P19" t="n">
         <v>64.50385852284384</v>
@@ -36063,7 +36063,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>17.45745063985536</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36118,10 +36118,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>239.2824184503291</v>
+        <v>187.7893642210055</v>
       </c>
       <c r="K20" t="n">
-        <v>409.8243487540481</v>
+        <v>244.6746763741597</v>
       </c>
       <c r="L20" t="n">
         <v>354.0153261005898</v>
@@ -36130,19 +36130,19 @@
         <v>400.1220378597099</v>
       </c>
       <c r="N20" t="n">
-        <v>385.1107455002865</v>
+        <v>550.2604178801749</v>
       </c>
       <c r="O20" t="n">
         <v>310.8784602363221</v>
       </c>
       <c r="P20" t="n">
-        <v>232.8452906963923</v>
+        <v>397.9949630762806</v>
       </c>
       <c r="Q20" t="n">
-        <v>134.3737843175593</v>
+        <v>97.17623368255899</v>
       </c>
       <c r="R20" t="n">
-        <v>76.45906751556431</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36218,7 +36218,7 @@
         <v>306.8410642033352</v>
       </c>
       <c r="Q21" t="n">
-        <v>160.4974568194095</v>
+        <v>160.49745681941</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36264,7 +36264,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>2.115542229066352</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -36297,10 +36297,10 @@
         <v>64.50385852284384</v>
       </c>
       <c r="Q22" t="n">
-        <v>32.82506932085926</v>
+        <v>48.16697773164856</v>
       </c>
       <c r="R22" t="n">
-        <v>17.45745063985536</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36355,13 +36355,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>239.2824184503291</v>
+        <v>187.789364221005</v>
       </c>
       <c r="K23" t="n">
-        <v>409.8243487540481</v>
+        <v>244.6746763741597</v>
       </c>
       <c r="L23" t="n">
-        <v>354.0153261005898</v>
+        <v>519.1649984804782</v>
       </c>
       <c r="M23" t="n">
         <v>400.1220378597099</v>
@@ -36370,16 +36370,16 @@
         <v>385.1107455002865</v>
       </c>
       <c r="O23" t="n">
-        <v>310.8784602363221</v>
+        <v>476.0281326162104</v>
       </c>
       <c r="P23" t="n">
         <v>232.8452906963923</v>
       </c>
       <c r="Q23" t="n">
-        <v>134.3737843175583</v>
+        <v>97.17623368255899</v>
       </c>
       <c r="R23" t="n">
-        <v>76.45906751556431</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>61.70074034953265</v>
+        <v>61.70074034953289</v>
       </c>
       <c r="K24" t="n">
         <v>233.2408564388568</v>
@@ -36446,7 +36446,7 @@
         <v>492.1799900982264</v>
       </c>
       <c r="N24" t="n">
-        <v>518.736734966704</v>
+        <v>518.7367349667043</v>
       </c>
       <c r="O24" t="n">
         <v>398.2718280705802</v>
@@ -36495,19 +36495,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>13.60849813937347</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>14.66074828359402</v>
+        <v>2.115542229066352</v>
       </c>
       <c r="F25" t="n">
-        <v>4.555822897891757</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>7.436864875306837</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -36531,13 +36531,13 @@
         <v>100.5092491635852</v>
       </c>
       <c r="P25" t="n">
-        <v>64.50385852284384</v>
+        <v>87.77652073933021</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>17.45745063985536</v>
+        <v>17.45745063985533</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>7.045567894472914</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>160.7176355090349</v>
       </c>
       <c r="L28" t="n">
-        <v>102.7288172396583</v>
+        <v>228.6389208366791</v>
       </c>
       <c r="M28" t="n">
-        <v>120.3509594427161</v>
+        <v>246.261063039737</v>
       </c>
       <c r="N28" t="n">
-        <v>246.6665149786377</v>
+        <v>216.1827640733176</v>
       </c>
       <c r="O28" t="n">
         <v>226.419352760606</v>
       </c>
       <c r="P28" t="n">
-        <v>190.4139621198647</v>
+        <v>64.50385852284384</v>
       </c>
       <c r="Q28" t="n">
-        <v>88.38078479722775</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>200.0428496674616</v>
       </c>
       <c r="K29" t="n">
-        <v>370.5847799711806</v>
+        <v>370.5847799711805</v>
       </c>
       <c r="L29" t="n">
         <v>479.9254296976107</v>
@@ -36850,10 +36850,10 @@
         <v>358.7553942934131</v>
       </c>
       <c r="Q29" t="n">
-        <v>223.0863372795799</v>
+        <v>223.0863372795798</v>
       </c>
       <c r="R29" t="n">
-        <v>37.21949873269681</v>
+        <v>37.21949873269678</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>66.97915038237012</v>
+        <v>66.97915038237009</v>
       </c>
       <c r="K31" t="n">
-        <v>160.7176355090348</v>
+        <v>100.7840530211393</v>
       </c>
       <c r="L31" t="n">
         <v>228.6389208366791</v>
       </c>
       <c r="M31" t="n">
-        <v>186.3274805518403</v>
+        <v>120.3509594427161</v>
       </c>
       <c r="N31" t="n">
-        <v>246.6665149786377</v>
+        <v>120.7564113816168</v>
       </c>
       <c r="O31" t="n">
-        <v>100.5092491635852</v>
+        <v>226.419352760606</v>
       </c>
       <c r="P31" t="n">
-        <v>64.50385852284384</v>
+        <v>190.4139621198647</v>
       </c>
       <c r="Q31" t="n">
-        <v>88.38078479722772</v>
+        <v>88.38078479722769</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,28 +37066,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>216.4827987865762</v>
+        <v>216.4827987865764</v>
       </c>
       <c r="K32" t="n">
-        <v>387.0247290902951</v>
+        <v>387.0247290902954</v>
       </c>
       <c r="L32" t="n">
-        <v>496.3653788167253</v>
+        <v>435.1591898586676</v>
       </c>
       <c r="M32" t="n">
-        <v>481.2659016177923</v>
+        <v>400.1220378597099</v>
       </c>
       <c r="N32" t="n">
-        <v>527.4607982164219</v>
+        <v>527.4607982164222</v>
       </c>
       <c r="O32" t="n">
-        <v>453.2285129524575</v>
+        <v>310.8784602363221</v>
       </c>
       <c r="P32" t="n">
-        <v>232.8452906963923</v>
+        <v>375.195343412528</v>
       </c>
       <c r="Q32" t="n">
-        <v>97.17623368255899</v>
+        <v>239.5262863986947</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>61.70074034953289</v>
+        <v>61.70074034953191</v>
       </c>
       <c r="K33" t="n">
         <v>233.2408564388568</v>
@@ -37157,7 +37157,7 @@
         <v>492.1799900982264</v>
       </c>
       <c r="N33" t="n">
-        <v>518.7367349667031</v>
+        <v>518.736734966704</v>
       </c>
       <c r="O33" t="n">
         <v>398.2718280705802</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>83.41909950148472</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>177.1575846281494</v>
+        <v>34.807531912014</v>
       </c>
       <c r="L34" t="n">
-        <v>207.6464852537121</v>
+        <v>245.0788699557939</v>
       </c>
       <c r="M34" t="n">
         <v>120.3509594427161</v>
@@ -37242,10 +37242,10 @@
         <v>100.5092491635852</v>
       </c>
       <c r="P34" t="n">
-        <v>64.50385852284384</v>
+        <v>148.0198921220359</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>104.8207339163425</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,13 +37303,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>239.282418450329</v>
+        <v>239.2824184503291</v>
       </c>
       <c r="K35" t="n">
-        <v>409.824348754048</v>
+        <v>244.6746763741597</v>
       </c>
       <c r="L35" t="n">
-        <v>354.0153261005898</v>
+        <v>519.1649984804782</v>
       </c>
       <c r="M35" t="n">
         <v>400.1220378597099</v>
@@ -37321,13 +37321,13 @@
         <v>310.8784602363221</v>
       </c>
       <c r="P35" t="n">
-        <v>232.8452906963923</v>
+        <v>270.0428413313929</v>
       </c>
       <c r="Q35" t="n">
-        <v>134.3737843175597</v>
+        <v>97.17623368255899</v>
       </c>
       <c r="R35" t="n">
-        <v>76.45906751556426</v>
+        <v>76.45906751556429</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37470,13 +37470,13 @@
         <v>102.7288172396583</v>
       </c>
       <c r="M37" t="n">
-        <v>120.3509594427161</v>
+        <v>170.633479403431</v>
       </c>
       <c r="N37" t="n">
         <v>120.7564113816168</v>
       </c>
       <c r="O37" t="n">
-        <v>150.7917691243005</v>
+        <v>100.5092491635852</v>
       </c>
       <c r="P37" t="n">
         <v>64.50385852284384</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>74.13274607044072</v>
+        <v>239.2824184503291</v>
       </c>
       <c r="K38" t="n">
         <v>244.6746763741597</v>
       </c>
       <c r="L38" t="n">
-        <v>391.2128767355902</v>
+        <v>354.0153261005898</v>
       </c>
       <c r="M38" t="n">
-        <v>565.2717102395983</v>
+        <v>400.1220378597099</v>
       </c>
       <c r="N38" t="n">
         <v>385.1107455002865</v>
       </c>
       <c r="O38" t="n">
-        <v>310.8784602363221</v>
+        <v>476.0281326162104</v>
       </c>
       <c r="P38" t="n">
         <v>232.8452906963923</v>
       </c>
       <c r="Q38" t="n">
-        <v>262.3259060624473</v>
+        <v>210.8328518331236</v>
       </c>
       <c r="R38" t="n">
-        <v>76.45906751556429</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37631,10 +37631,10 @@
         <v>492.1799900982264</v>
       </c>
       <c r="N39" t="n">
-        <v>518.7367349667038</v>
+        <v>518.736734966704</v>
       </c>
       <c r="O39" t="n">
-        <v>398.2718280705802</v>
+        <v>398.2718280705804</v>
       </c>
       <c r="P39" t="n">
         <v>306.8410642033352</v>
@@ -37680,13 +37680,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>13.60849813937344</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>14.66074828359399</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>4.555822897892187</v>
+        <v>2.115542229066352</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -37716,13 +37716,13 @@
         <v>100.5092491635852</v>
       </c>
       <c r="P40" t="n">
-        <v>64.50385852284384</v>
+        <v>112.6708362544924</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>17.45745063985533</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37777,16 +37777,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>206.7834683705971</v>
+        <v>74.13274607044072</v>
       </c>
       <c r="K41" t="n">
         <v>244.6746763741597</v>
       </c>
       <c r="L41" t="n">
-        <v>354.0153261005898</v>
+        <v>400.0191221104623</v>
       </c>
       <c r="M41" t="n">
-        <v>402.1657164337497</v>
+        <v>400.1220378597099</v>
       </c>
       <c r="N41" t="n">
         <v>517.7614678004429</v>
@@ -37798,10 +37798,10 @@
         <v>365.4960129965486</v>
       </c>
       <c r="Q41" t="n">
-        <v>97.17623368255899</v>
+        <v>229.8269559827154</v>
       </c>
       <c r="R41" t="n">
-        <v>43.96011743583232</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>61.70074034953265</v>
+        <v>61.70074034953289</v>
       </c>
       <c r="K42" t="n">
         <v>233.2408564388568</v>
@@ -37871,7 +37871,7 @@
         <v>518.736734966704</v>
       </c>
       <c r="O42" t="n">
-        <v>398.2718280705802</v>
+        <v>398.2718280705804</v>
       </c>
       <c r="P42" t="n">
         <v>306.8410642033352</v>
@@ -37938,25 +37938,25 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>167.4582542121703</v>
+        <v>34.807531912014</v>
       </c>
       <c r="L43" t="n">
-        <v>235.3795395398146</v>
+        <v>102.7288172396583</v>
       </c>
       <c r="M43" t="n">
-        <v>211.4258705595199</v>
+        <v>253.0016817428725</v>
       </c>
       <c r="N43" t="n">
-        <v>253.4071336817732</v>
+        <v>249.3606412982131</v>
       </c>
       <c r="O43" t="n">
         <v>100.5092491635852</v>
       </c>
       <c r="P43" t="n">
-        <v>64.50385852284384</v>
+        <v>197.1545808230003</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>95.12140350036326</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>206.7834683705972</v>
+        <v>120.1365420803131</v>
       </c>
       <c r="K44" t="n">
-        <v>377.3253986743161</v>
+        <v>244.6746763741597</v>
       </c>
       <c r="L44" t="n">
-        <v>354.0153261005898</v>
+        <v>486.6660484007462</v>
       </c>
       <c r="M44" t="n">
-        <v>400.1220378597099</v>
+        <v>532.7727601598664</v>
       </c>
       <c r="N44" t="n">
-        <v>517.761467800443</v>
+        <v>385.1107455002865</v>
       </c>
       <c r="O44" t="n">
-        <v>310.8784602363221</v>
+        <v>443.5291825364785</v>
       </c>
       <c r="P44" t="n">
         <v>232.8452906963923</v>
       </c>
       <c r="Q44" t="n">
-        <v>143.1800296924311</v>
+        <v>97.17623368255899</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>73.71976908550572</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>167.4582542121705</v>
+        <v>167.4582542121704</v>
       </c>
       <c r="L46" t="n">
-        <v>235.3795395398147</v>
+        <v>231.3330471562546</v>
       </c>
       <c r="M46" t="n">
         <v>253.0016817428725</v>
@@ -38190,10 +38190,10 @@
         <v>100.5092491635852</v>
       </c>
       <c r="P46" t="n">
-        <v>81.85900055414027</v>
+        <v>64.50385852284384</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>95.12140350036326</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
